--- a/cta策略/result/螺纹/RSI_1d/wfo净值.xlsx
+++ b/cta策略/result/螺纹/RSI_1d/wfo净值.xlsx
@@ -551,7 +551,7 @@
         <v>41689</v>
       </c>
       <c r="B21">
-        <v>9922137.270023294</v>
+        <v>9932079.349372666</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -559,7 +559,7 @@
         <v>41690</v>
       </c>
       <c r="B22">
-        <v>9922137.270023294</v>
+        <v>9926287.286895821</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -567,7 +567,7 @@
         <v>41691</v>
       </c>
       <c r="B23">
-        <v>9922137.270023294</v>
+        <v>9824926.149221521</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -575,7 +575,7 @@
         <v>41694</v>
       </c>
       <c r="B24">
-        <v>9922137.270023294</v>
+        <v>9790173.763278071</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -583,7 +583,7 @@
         <v>41695</v>
       </c>
       <c r="B25">
-        <v>9912215.13275327</v>
+        <v>9599888.364719015</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -591,7 +591,7 @@
         <v>41696</v>
       </c>
       <c r="B26">
-        <v>9983771.867943723</v>
+        <v>9670434.658212351</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -599,7 +599,7 @@
         <v>41697</v>
       </c>
       <c r="B27">
-        <v>9916749.559626861</v>
+        <v>9615179.318319645</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -607,7 +607,7 @@
         <v>41698</v>
       </c>
       <c r="B28">
-        <v>9916749.559626861</v>
+        <v>9559923.978426939</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -615,7 +615,7 @@
         <v>41701</v>
       </c>
       <c r="B29">
-        <v>9916749.559626861</v>
+        <v>9615179.318319645</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -623,7 +623,7 @@
         <v>41702</v>
       </c>
       <c r="B30">
-        <v>9916749.559626861</v>
+        <v>9599081.553402591</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -631,7 +631,7 @@
         <v>41703</v>
       </c>
       <c r="B31">
-        <v>9916749.559626861</v>
+        <v>9627318.757540798</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -639,7 +639,7 @@
         <v>41704</v>
       </c>
       <c r="B32">
-        <v>9916749.559626861</v>
+        <v>9627318.757540798</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -647,7 +647,7 @@
         <v>41705</v>
       </c>
       <c r="B33">
-        <v>9916749.559626861</v>
+        <v>9712030.35882657</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -655,7 +655,7 @@
         <v>41708</v>
       </c>
       <c r="B34">
-        <v>9906832.810067235</v>
+        <v>9979861.782917101</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -663,7 +663,7 @@
         <v>41709</v>
       </c>
       <c r="B35">
-        <v>10238074.21983648</v>
+        <v>10303987.57428888</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -671,7 +671,7 @@
         <v>41710</v>
       </c>
       <c r="B36">
-        <v>10219069.5321683</v>
+        <v>10284852.34950729</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -679,7 +679,7 @@
         <v>41711</v>
       </c>
       <c r="B37">
-        <v>9974014.508079166</v>
+        <v>10048759.72622834</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -687,7 +687,7 @@
         <v>41712</v>
       </c>
       <c r="B38">
-        <v>9974014.508079166</v>
+        <v>10013184.12516926</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -695,7 +695,7 @@
         <v>41715</v>
       </c>
       <c r="B39">
-        <v>9974014.508079166</v>
+        <v>10013184.12516926</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -703,7 +703,7 @@
         <v>41716</v>
       </c>
       <c r="B40">
-        <v>9974014.508079166</v>
+        <v>10149018.23946268</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -711,7 +711,7 @@
         <v>41717</v>
       </c>
       <c r="B41">
-        <v>9974014.508079166</v>
+        <v>10106974.34421191</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -719,7 +719,7 @@
         <v>41718</v>
       </c>
       <c r="B42">
-        <v>9974014.508079166</v>
+        <v>10026120.70930384</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -727,7 +727,7 @@
         <v>41719</v>
       </c>
       <c r="B43">
-        <v>9974014.508079166</v>
+        <v>10139315.80242395</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -735,7 +735,7 @@
         <v>41722</v>
       </c>
       <c r="B44">
-        <v>9974014.508079166</v>
+        <v>10191062.13046464</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -743,7 +743,7 @@
         <v>41723</v>
       </c>
       <c r="B45">
-        <v>9964040.493571086</v>
+        <v>10194092.79179166</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -751,7 +751,7 @@
         <v>41724</v>
       </c>
       <c r="B46">
-        <v>9726654.029612746</v>
+        <v>9951527.26566047</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -759,7 +759,7 @@
         <v>41725</v>
       </c>
       <c r="B47">
-        <v>9659099.416303014</v>
+        <v>9892548.04785078</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -767,7 +767,7 @@
         <v>41726</v>
       </c>
       <c r="B48">
-        <v>9659099.416303014</v>
+        <v>9911173.0620695</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -775,7 +775,7 @@
         <v>41729</v>
       </c>
       <c r="B49">
-        <v>9649440.316886712</v>
+        <v>10034973.11160991</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -783,7 +783,7 @@
         <v>41730</v>
       </c>
       <c r="B50">
-        <v>9698974.750236765</v>
+        <v>10085788.13271501</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -791,7 +791,7 @@
         <v>41731</v>
       </c>
       <c r="B51">
-        <v>9748265.519459119</v>
+        <v>10137048.06829681</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -799,7 +799,7 @@
         <v>41732</v>
       </c>
       <c r="B52">
-        <v>9648770.563592717</v>
+        <v>10043577.38362518</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -807,7 +807,7 @@
         <v>41733</v>
       </c>
       <c r="B53">
-        <v>9648770.563592717</v>
+        <v>10118956.96752667</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -815,7 +815,7 @@
         <v>41737</v>
       </c>
       <c r="B54">
-        <v>9639121.793029124</v>
+        <v>10266604.46254295</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -823,7 +823,7 @@
         <v>41738</v>
       </c>
       <c r="B55">
-        <v>9718774.309690706</v>
+        <v>10350168.18827234</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -831,7 +831,7 @@
         <v>41739</v>
       </c>
       <c r="B56">
-        <v>9635842.873438306</v>
+        <v>10272026.58623734</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -839,7 +839,7 @@
         <v>41740</v>
       </c>
       <c r="B57">
-        <v>9635842.873438306</v>
+        <v>10220933.99816534</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -847,7 +847,7 @@
         <v>41743</v>
       </c>
       <c r="B58">
-        <v>9635842.873438306</v>
+        <v>10169841.41009334</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -855,7 +855,7 @@
         <v>41744</v>
       </c>
       <c r="B59">
-        <v>9635842.873438306</v>
+        <v>10172846.85784405</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -863,7 +863,7 @@
         <v>41745</v>
       </c>
       <c r="B60">
-        <v>9635842.873438306</v>
+        <v>10178857.74939713</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -871,7 +871,7 @@
         <v>41746</v>
       </c>
       <c r="B61">
-        <v>9635842.873438306</v>
+        <v>10109732.48666591</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -879,7 +879,7 @@
         <v>41747</v>
       </c>
       <c r="B62">
-        <v>9626207.030564867</v>
+        <v>10050564.85520183</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -887,7 +887,7 @@
         <v>41750</v>
       </c>
       <c r="B63">
-        <v>9831892.473440556</v>
+        <v>10266414.94173802</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -895,7 +895,7 @@
         <v>41751</v>
       </c>
       <c r="B64">
-        <v>9890829.349533666</v>
+        <v>10327948.86999438</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -903,7 +903,7 @@
         <v>41752</v>
       </c>
       <c r="B65">
-        <v>9842146.350395324</v>
+        <v>10277114.32357787</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -911,7 +911,7 @@
         <v>41753</v>
       </c>
       <c r="B66">
-        <v>9774338.746123206</v>
+        <v>10216698.36602044</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -919,7 +919,7 @@
         <v>41754</v>
       </c>
       <c r="B67">
-        <v>9774338.746123206</v>
+        <v>10146743.04630369</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -927,7 +927,7 @@
         <v>41757</v>
       </c>
       <c r="B68">
-        <v>9774338.746123206</v>
+        <v>10235777.09033908</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -935,7 +935,7 @@
         <v>41758</v>
       </c>
       <c r="B69">
-        <v>9764564.407377083</v>
+        <v>10362962.26130997</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -943,7 +943,7 @@
         <v>41759</v>
       </c>
       <c r="B70">
-        <v>9672774.83894952</v>
+        <v>10277160.96263831</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -951,7 +951,7 @@
         <v>41764</v>
       </c>
       <c r="B71">
-        <v>9672774.83894952</v>
+        <v>10366140.08873292</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -959,7 +959,7 @@
         <v>41765</v>
       </c>
       <c r="B72">
-        <v>9672774.83894952</v>
+        <v>10315294.87501452</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -967,7 +967,7 @@
         <v>41766</v>
       </c>
       <c r="B73">
-        <v>9672774.83894952</v>
+        <v>10362962.26130996</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -975,7 +975,7 @@
         <v>41767</v>
       </c>
       <c r="B74">
-        <v>9663102.064110572</v>
+        <v>10477122.40318921</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -983,7 +983,7 @@
         <v>41768</v>
       </c>
       <c r="B75">
-        <v>9672212.436677933</v>
+        <v>10486759.5145009</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -991,7 +991,7 @@
         <v>41771</v>
       </c>
       <c r="B76">
-        <v>9763216.265300477</v>
+        <v>10585429.75221647</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -999,7 +999,7 @@
         <v>41772</v>
       </c>
       <c r="B77">
-        <v>9612247.511983883</v>
+        <v>10432386.941014</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1007,7 +1007,7 @@
         <v>41773</v>
       </c>
       <c r="B78">
-        <v>9612247.511983883</v>
+        <v>10538851.50456862</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1015,7 +1015,7 @@
         <v>41774</v>
       </c>
       <c r="B79">
-        <v>9612247.511983883</v>
+        <v>10545505.54306889</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1023,7 +1023,7 @@
         <v>41775</v>
       </c>
       <c r="B80">
-        <v>9602635.264471898</v>
+        <v>10668463.27266209</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1031,7 +1031,7 @@
         <v>41778</v>
       </c>
       <c r="B81">
-        <v>9743905.258103563</v>
+        <v>10823315.73905109</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1039,7 +1039,7 @@
         <v>41779</v>
       </c>
       <c r="B82">
-        <v>9756218.430432448</v>
+        <v>10836997.68834169</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1047,7 +1047,7 @@
         <v>41780</v>
       </c>
       <c r="B83">
-        <v>9784677.828972312</v>
+        <v>10868609.75780619</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1055,7 +1055,7 @@
         <v>41781</v>
       </c>
       <c r="B84">
-        <v>9771942.115583621</v>
+        <v>10854463.20119152</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1063,7 +1063,7 @@
         <v>41782</v>
       </c>
       <c r="B85">
-        <v>9720709.517531486</v>
+        <v>10808469.73602022</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1071,7 +1071,7 @@
         <v>41785</v>
       </c>
       <c r="B86">
-        <v>9720709.517531486</v>
+        <v>10797855.85872716</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1079,7 +1079,7 @@
         <v>41786</v>
       </c>
       <c r="B87">
-        <v>9710988.808013955</v>
+        <v>10591974.95122225</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1087,7 +1087,7 @@
         <v>41787</v>
       </c>
       <c r="B88">
-        <v>9707886.418249514</v>
+        <v>10588333.70434546</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1095,7 +1095,7 @@
         <v>41788</v>
       </c>
       <c r="B89">
-        <v>9620911.348477727</v>
+        <v>10503975.82639898</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1103,7 +1103,7 @@
         <v>41789</v>
       </c>
       <c r="B90">
-        <v>9620911.348477727</v>
+        <v>10476981.30598806</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1111,7 +1111,7 @@
         <v>41793</v>
       </c>
       <c r="B91">
-        <v>9611290.43712925</v>
+        <v>10294218.54678614</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1119,7 +1119,7 @@
         <v>41794</v>
       </c>
       <c r="B92">
-        <v>9620728.690106606</v>
+        <v>10304324.33097722</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1127,7 +1127,7 @@
         <v>41795</v>
       </c>
       <c r="B93">
-        <v>9579625.083227815</v>
+        <v>10270628.03127736</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1135,7 +1135,7 @@
         <v>41796</v>
       </c>
       <c r="B94">
-        <v>9579625.083227815</v>
+        <v>10260519.14623688</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1143,7 +1143,7 @@
         <v>41799</v>
       </c>
       <c r="B95">
-        <v>9579625.083227815</v>
+        <v>10243670.99417355</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1151,7 +1151,7 @@
         <v>41800</v>
       </c>
       <c r="B96">
-        <v>9579625.083227815</v>
+        <v>10257149.51493885</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1159,7 +1159,7 @@
         <v>41801</v>
       </c>
       <c r="B97">
-        <v>9579625.083227815</v>
+        <v>10260519.14623688</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1167,7 +1167,7 @@
         <v>41802</v>
       </c>
       <c r="B98">
-        <v>9579625.083227815</v>
+        <v>10351499.1470156</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1175,7 +1175,7 @@
         <v>41803</v>
       </c>
       <c r="B99">
-        <v>9570045.458144587</v>
+        <v>10428818.67013274</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1183,7 +1183,7 @@
         <v>41806</v>
       </c>
       <c r="B100">
-        <v>9570035.878519503</v>
+        <v>10428741.35060963</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1191,7 +1191,7 @@
         <v>41807</v>
       </c>
       <c r="B101">
-        <v>9630224.434935354</v>
+        <v>10494331.02661173</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1199,7 +1199,7 @@
         <v>41808</v>
       </c>
       <c r="B102">
-        <v>9553574.798331875</v>
+        <v>10421305.49590474</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1207,7 +1207,7 @@
         <v>41809</v>
       </c>
       <c r="B103">
-        <v>9553574.798331875</v>
+        <v>10463034.36863657</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1215,7 +1215,7 @@
         <v>41810</v>
       </c>
       <c r="B104">
-        <v>9553574.798331875</v>
+        <v>10456079.557276</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1223,7 +1223,7 @@
         <v>41813</v>
       </c>
       <c r="B105">
-        <v>9553574.798331875</v>
+        <v>10348279.96519775</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1231,7 +1231,7 @@
         <v>41814</v>
       </c>
       <c r="B106">
-        <v>9544021.223533543</v>
+        <v>10243815.6804655</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1239,7 +1239,7 @@
         <v>41815</v>
       </c>
       <c r="B107">
-        <v>9531353.77404687</v>
+        <v>10240439.40475353</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1247,7 +1247,7 @@
         <v>41816</v>
       </c>
       <c r="B108">
-        <v>9521822.420272823</v>
+        <v>10311165.79318145</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1255,7 +1255,7 @@
         <v>41817</v>
       </c>
       <c r="B109">
-        <v>9614407.597388748</v>
+        <v>10410719.8168814</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1263,7 +1263,7 @@
         <v>41820</v>
       </c>
       <c r="B110">
-        <v>9528543.072072903</v>
+        <v>10327965.67569776</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1271,7 +1271,7 @@
         <v>41821</v>
       </c>
       <c r="B111">
-        <v>9528543.072072903</v>
+        <v>10301484.35104084</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1279,7 +1279,7 @@
         <v>41822</v>
       </c>
       <c r="B112">
-        <v>9528543.072072903</v>
+        <v>10268382.69630685</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1287,7 +1287,7 @@
         <v>41823</v>
       </c>
       <c r="B113">
-        <v>9528543.072072903</v>
+        <v>10370997.82772168</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1295,7 +1295,7 @@
         <v>41824</v>
       </c>
       <c r="B114">
-        <v>9528543.072072903</v>
+        <v>10304813.72634706</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1303,7 +1303,7 @@
         <v>41827</v>
       </c>
       <c r="B115">
-        <v>9528543.072072903</v>
+        <v>10317977.55412777</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1311,7 +1311,7 @@
         <v>41828</v>
       </c>
       <c r="B116">
-        <v>9528543.072072903</v>
+        <v>10271904.14819793</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1319,7 +1319,7 @@
         <v>41829</v>
       </c>
       <c r="B117">
-        <v>9528543.072072903</v>
+        <v>10354178.09139642</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1327,7 +1327,7 @@
         <v>41830</v>
       </c>
       <c r="B118">
-        <v>9528543.072072903</v>
+        <v>10278486.06208829</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1335,7 +1335,7 @@
         <v>41831</v>
       </c>
       <c r="B119">
-        <v>9528543.072072903</v>
+        <v>10350887.13227691</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1343,7 +1343,7 @@
         <v>41834</v>
       </c>
       <c r="B120">
-        <v>9528543.072072903</v>
+        <v>10403542.45644578</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1351,7 +1351,7 @@
         <v>41835</v>
       </c>
       <c r="B121">
-        <v>9519014.52900083</v>
+        <v>10459445.12764073</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1359,7 +1359,7 @@
         <v>41836</v>
       </c>
       <c r="B122">
-        <v>9500414.498101914</v>
+        <v>10449530.69705948</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1367,7 +1367,7 @@
         <v>41837</v>
       </c>
       <c r="B123">
-        <v>9500414.498101914</v>
+        <v>10396653.73250382</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1375,7 +1375,7 @@
         <v>41838</v>
       </c>
       <c r="B124">
-        <v>9500414.498101914</v>
+        <v>10360300.82182823</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1383,7 +1383,7 @@
         <v>41841</v>
       </c>
       <c r="B125">
-        <v>9490914.083603812</v>
+        <v>10161354.83214371</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1391,7 +1391,7 @@
         <v>41842</v>
       </c>
       <c r="B126">
-        <v>9568362.50194055</v>
+        <v>10245772.89652857</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1399,7 +1399,7 @@
         <v>41843</v>
       </c>
       <c r="B127">
-        <v>9555805.394278709</v>
+        <v>10232327.25270232</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1407,7 +1407,7 @@
         <v>41844</v>
       </c>
       <c r="B128">
-        <v>9593512.834743302</v>
+        <v>10272704.26255663</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1415,7 +1415,7 @@
         <v>41845</v>
       </c>
       <c r="B129">
-        <v>9568278.820679296</v>
+        <v>10245683.75731124</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1423,7 +1423,7 @@
         <v>41848</v>
       </c>
       <c r="B130">
-        <v>9539725.571661321</v>
+        <v>10225402.01142018</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1431,7 +1431,7 @@
         <v>41849</v>
       </c>
       <c r="B131">
-        <v>9539725.571661321</v>
+        <v>10090190.37512423</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1439,7 +1439,7 @@
         <v>41850</v>
       </c>
       <c r="B132">
-        <v>9530185.846089659</v>
+        <v>10025684.25906724</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1447,7 +1447,7 @@
         <v>41851</v>
       </c>
       <c r="B133">
-        <v>9443740.164709341</v>
+        <v>9944259.222071905</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1455,7 +1455,7 @@
         <v>41852</v>
       </c>
       <c r="B134">
-        <v>9443740.164709341</v>
+        <v>9908432.207859786</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1463,7 +1463,7 @@
         <v>41855</v>
       </c>
       <c r="B135">
-        <v>9443740.164709341</v>
+        <v>9914946.209270043</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1471,7 +1471,7 @@
         <v>41856</v>
       </c>
       <c r="B136">
-        <v>9443740.164709341</v>
+        <v>10051740.26901207</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1479,7 +1479,7 @@
         <v>41857</v>
       </c>
       <c r="B137">
-        <v>9443740.164709341</v>
+        <v>10012656.25194292</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1487,7 +1487,7 @@
         <v>41858</v>
       </c>
       <c r="B138">
-        <v>9443740.164709341</v>
+        <v>10058254.27042232</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1495,7 +1495,7 @@
         <v>41859</v>
       </c>
       <c r="B139">
-        <v>9443740.164709341</v>
+        <v>10022427.2562102</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1503,7 +1503,7 @@
         <v>41862</v>
       </c>
       <c r="B140">
-        <v>9443740.164709341</v>
+        <v>9983343.239141053</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1511,7 +1511,7 @@
         <v>41863</v>
       </c>
       <c r="B141">
-        <v>9434296.424544631</v>
+        <v>9872207.201325359</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1519,7 +1519,7 @@
         <v>41864</v>
       </c>
       <c r="B142">
-        <v>9415733.135980984</v>
+        <v>9852482.077815635</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1527,7 +1527,7 @@
         <v>41865</v>
       </c>
       <c r="B143">
-        <v>9483445.776720272</v>
+        <v>9923338.02949203</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1535,7 +1535,7 @@
         <v>41866</v>
       </c>
       <c r="B144">
-        <v>9554520.877894612</v>
+        <v>9997709.947985597</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1543,7 +1543,7 @@
         <v>41869</v>
       </c>
       <c r="B145">
-        <v>9507292.186584724</v>
+        <v>9958253.335421359</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1551,7 +1551,7 @@
         <v>41870</v>
       </c>
       <c r="B146">
-        <v>9497784.89439814</v>
+        <v>10027237.89964342</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1559,7 +1559,7 @@
         <v>41871</v>
       </c>
       <c r="B147">
-        <v>9485114.826829581</v>
+        <v>10023928.41323815</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -1567,7 +1567,7 @@
         <v>41872</v>
       </c>
       <c r="B148">
-        <v>9475629.71200275</v>
+        <v>10086683.46153072</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -1575,7 +1575,7 @@
         <v>41873</v>
       </c>
       <c r="B149">
-        <v>9510487.721190389</v>
+        <v>10123448.84372593</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -1583,7 +1583,7 @@
         <v>41876</v>
       </c>
       <c r="B150">
-        <v>9516926.696408562</v>
+        <v>10140372.80783205</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -1591,7 +1591,7 @@
         <v>41877</v>
       </c>
       <c r="B151">
-        <v>9507409.769712154</v>
+        <v>10140302.19452164</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -1599,7 +1599,7 @@
         <v>41878</v>
       </c>
       <c r="B152">
-        <v>9472275.516952889</v>
+        <v>10113033.96653495</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -1607,7 +1607,7 @@
         <v>41879</v>
       </c>
       <c r="B153">
-        <v>9462803.241435936</v>
+        <v>10188001.21406555</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -1615,7 +1615,7 @@
         <v>41880</v>
       </c>
       <c r="B154">
-        <v>9555491.303105241</v>
+        <v>10286874.14173856</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -1623,7 +1623,7 @@
         <v>41883</v>
       </c>
       <c r="B155">
-        <v>9519932.464461306</v>
+        <v>10248591.10963825</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -1631,7 +1631,7 @@
         <v>41884</v>
       </c>
       <c r="B156">
-        <v>9610789.024922516</v>
+        <v>10346401.88635828</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -1639,7 +1639,7 @@
         <v>41885</v>
       </c>
       <c r="B157">
-        <v>9653111.669202164</v>
+        <v>10391963.91920559</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -1647,7 +1647,7 @@
         <v>41886</v>
       </c>
       <c r="B158">
-        <v>9811875.878853561</v>
+        <v>10562879.99216954</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -1655,7 +1655,7 @@
         <v>41887</v>
       </c>
       <c r="B159">
-        <v>9862401.024528103</v>
+        <v>10617272.34862985</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -1663,7 +1663,7 @@
         <v>41891</v>
       </c>
       <c r="B160">
-        <v>9927950.78855182</v>
+        <v>10687839.3125261</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -1671,7 +1671,7 @@
         <v>41892</v>
       </c>
       <c r="B161">
-        <v>10137513.72082653</v>
+        <v>10913442.25856373</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -1679,7 +1679,7 @@
         <v>41893</v>
       </c>
       <c r="B162">
-        <v>10086995.34306413</v>
+        <v>10859057.1880337</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -1687,7 +1687,7 @@
         <v>41894</v>
       </c>
       <c r="B163">
-        <v>10152760.63154927</v>
+        <v>10929856.17270248</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -1695,7 +1695,7 @@
         <v>41897</v>
       </c>
       <c r="B164">
-        <v>9937507.958332336</v>
+        <v>10709207.69679776</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -1703,7 +1703,7 @@
         <v>41898</v>
       </c>
       <c r="B165">
-        <v>9937507.958332336</v>
+        <v>10654045.57912321</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -1711,7 +1711,7 @@
         <v>41899</v>
       </c>
       <c r="B166">
-        <v>9937507.958332336</v>
+        <v>10736788.75823829</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -1719,7 +1719,7 @@
         <v>41900</v>
       </c>
       <c r="B167">
-        <v>9937507.958332336</v>
+        <v>10772250.12071619</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -1727,7 +1727,7 @@
         <v>41901</v>
       </c>
       <c r="B168">
-        <v>9937507.958332336</v>
+        <v>10921975.87166512</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -1735,7 +1735,7 @@
         <v>41904</v>
       </c>
       <c r="B169">
-        <v>9927570.450374003</v>
+        <v>11173838.35405925</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -1743,7 +1743,7 @@
         <v>41905</v>
       </c>
       <c r="B170">
-        <v>10237126.01059033</v>
+        <v>11513797.52200584</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -1751,7 +1751,7 @@
         <v>41906</v>
       </c>
       <c r="B171">
-        <v>10229216.73033598</v>
+        <v>11504903.79878331</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -1759,7 +1759,7 @@
         <v>41907</v>
       </c>
       <c r="B172">
-        <v>10225285.63281566</v>
+        <v>11500482.45619601</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -1767,7 +1767,7 @@
         <v>41908</v>
       </c>
       <c r="B173">
-        <v>10495136.53696264</v>
+        <v>11803986.50484828</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -1775,7 +1775,7 @@
         <v>41911</v>
       </c>
       <c r="B174">
-        <v>10319952.15366636</v>
+        <v>11618640.68051339</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -1783,7 +1783,7 @@
         <v>41912</v>
       </c>
       <c r="B175">
-        <v>10319952.15366636</v>
+        <v>11831110.28431064</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -1791,7 +1791,7 @@
         <v>41920</v>
       </c>
       <c r="B176">
-        <v>10319952.15366636</v>
+        <v>11754259.57782516</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -1799,7 +1799,7 @@
         <v>41921</v>
       </c>
       <c r="B177">
-        <v>10309632.20151269</v>
+        <v>11943732.11741078</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -1807,7 +1807,7 @@
         <v>41922</v>
       </c>
       <c r="B178">
-        <v>10175990.25803127</v>
+        <v>11803410.6735154</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -1815,7 +1815,7 @@
         <v>41925</v>
       </c>
       <c r="B179">
-        <v>10175990.25803127</v>
+        <v>11508735.64133511</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -1823,7 +1823,7 @@
         <v>41926</v>
       </c>
       <c r="B180">
-        <v>10165814.26777324</v>
+        <v>11222842.35640218</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -1831,7 +1831,7 @@
         <v>41927</v>
       </c>
       <c r="B181">
-        <v>10125087.37220581</v>
+        <v>11188255.62448402</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -1839,7 +1839,7 @@
         <v>41928</v>
       </c>
       <c r="B182">
-        <v>10125087.37220581</v>
+        <v>11106112.12975141</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -1847,7 +1847,7 @@
         <v>41929</v>
       </c>
       <c r="B183">
-        <v>10125087.37220581</v>
+        <v>11196902.30603534</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -1855,7 +1855,7 @@
         <v>41932</v>
       </c>
       <c r="B184">
-        <v>10125087.37220581</v>
+        <v>11275177.28705615</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -1863,7 +1863,7 @@
         <v>41933</v>
       </c>
       <c r="B185">
-        <v>10125087.37220581</v>
+        <v>11239862.82726552</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -1871,7 +1871,7 @@
         <v>41934</v>
       </c>
       <c r="B186">
-        <v>10125087.37220581</v>
+        <v>11186891.14043601</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -1879,7 +1879,7 @@
         <v>41935</v>
       </c>
       <c r="B187">
-        <v>10125087.37220581</v>
+        <v>10930861.32552076</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -1887,7 +1887,7 @@
         <v>41936</v>
       </c>
       <c r="B188">
-        <v>10125087.37220581</v>
+        <v>10895546.86573013</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -1895,7 +1895,7 @@
         <v>41939</v>
       </c>
       <c r="B189">
-        <v>10125087.37220581</v>
+        <v>11001490.23938915</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -1903,7 +1903,7 @@
         <v>41940</v>
       </c>
       <c r="B190">
-        <v>10125087.37220581</v>
+        <v>10944104.24294349</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -1911,7 +1911,7 @@
         <v>41941</v>
       </c>
       <c r="B191">
-        <v>10125087.37220581</v>
+        <v>10961761.47569523</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -1919,7 +1919,7 @@
         <v>41942</v>
       </c>
       <c r="B192">
-        <v>10125087.37220581</v>
+        <v>11151576.68064538</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -1927,7 +1927,7 @@
         <v>41943</v>
       </c>
       <c r="B193">
-        <v>10125087.37220581</v>
+        <v>11142748.06712594</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -1935,7 +1935,7 @@
         <v>41946</v>
       </c>
       <c r="B194">
-        <v>10125087.37220581</v>
+        <v>11014733.16252475</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -1943,7 +1943,7 @@
         <v>41947</v>
       </c>
       <c r="B195">
-        <v>10125087.37220581</v>
+        <v>10904375.47924957</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -1951,7 +1951,7 @@
         <v>41948</v>
       </c>
       <c r="B196">
-        <v>10125087.37220581</v>
+        <v>10988247.31625356</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -1959,7 +1959,7 @@
         <v>41949</v>
       </c>
       <c r="B197">
-        <v>10125087.37220581</v>
+        <v>10846989.48851677</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -1967,7 +1967,7 @@
         <v>41950</v>
       </c>
       <c r="B198">
-        <v>10125087.37220581</v>
+        <v>10869061.02517181</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -1975,7 +1975,7 @@
         <v>41953</v>
       </c>
       <c r="B199">
-        <v>10125087.37220581</v>
+        <v>11010318.85290859</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -1983,7 +1983,7 @@
         <v>41954</v>
       </c>
       <c r="B200">
-        <v>10125087.37220581</v>
+        <v>10992661.62586971</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -1991,7 +1991,7 @@
         <v>41955</v>
       </c>
       <c r="B201">
-        <v>10125087.37220581</v>
+        <v>11014733.16252475</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -1999,7 +1999,7 @@
         <v>41956</v>
       </c>
       <c r="B202">
-        <v>10125087.37220581</v>
+        <v>10966175.77959852</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2007,7 +2007,7 @@
         <v>41957</v>
       </c>
       <c r="B203">
-        <v>10125087.37220581</v>
+        <v>10816089.33834229</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2015,7 +2015,7 @@
         <v>41960</v>
       </c>
       <c r="B204">
-        <v>10125087.37220581</v>
+        <v>10877889.63869125</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2023,7 +2023,7 @@
         <v>41961</v>
       </c>
       <c r="B205">
-        <v>10125087.37220581</v>
+        <v>10785189.18816782</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2031,7 +2031,7 @@
         <v>41962</v>
       </c>
       <c r="B206">
-        <v>10125087.37220581</v>
+        <v>10489430.60384578</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2039,7 +2039,7 @@
         <v>41963</v>
       </c>
       <c r="B207">
-        <v>10125087.37220581</v>
+        <v>10515916.4444041</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2047,7 +2047,7 @@
         <v>41964</v>
       </c>
       <c r="B208">
-        <v>10125087.37220581</v>
+        <v>10409973.07074508</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2055,7 +2055,7 @@
         <v>41967</v>
       </c>
       <c r="B209">
-        <v>10125087.37220581</v>
+        <v>10621859.81806313</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2063,7 +2063,7 @@
         <v>41968</v>
       </c>
       <c r="B210">
-        <v>10125087.37220581</v>
+        <v>10462944.75757459</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2071,7 +2071,7 @@
         <v>41969</v>
       </c>
       <c r="B211">
-        <v>10125087.37220581</v>
+        <v>10493844.90774906</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2079,7 +2079,7 @@
         <v>41970</v>
       </c>
       <c r="B212">
-        <v>10125087.37220581</v>
+        <v>10560059.51771417</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2087,7 +2087,7 @@
         <v>41971</v>
       </c>
       <c r="B213">
-        <v>10125087.37220581</v>
+        <v>10846989.48851677</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2095,7 +2095,7 @@
         <v>41974</v>
       </c>
       <c r="B214">
-        <v>10125087.37220581</v>
+        <v>10877889.63869124</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2103,7 +2103,7 @@
         <v>41975</v>
       </c>
       <c r="B215">
-        <v>10125087.37220581</v>
+        <v>10961761.47569523</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2111,7 +2111,7 @@
         <v>41976</v>
       </c>
       <c r="B216">
-        <v>10125087.37220581</v>
+        <v>10745460.41876103</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2119,7 +2119,7 @@
         <v>41977</v>
       </c>
       <c r="B217">
-        <v>10125087.37220581</v>
+        <v>10899961.17534628</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2127,7 +2127,7 @@
         <v>41978</v>
       </c>
       <c r="B218">
-        <v>10125087.37220581</v>
+        <v>11054461.92621866</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2135,7 +2135,7 @@
         <v>41981</v>
       </c>
       <c r="B219">
-        <v>10125087.37220581</v>
+        <v>11036804.69346691</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2143,7 +2143,7 @@
         <v>41982</v>
       </c>
       <c r="B220">
-        <v>10125087.37220581</v>
+        <v>10904375.47924956</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2151,7 +2151,7 @@
         <v>41983</v>
       </c>
       <c r="B221">
-        <v>10125087.37220581</v>
+        <v>11005904.54329243</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2159,7 +2159,7 @@
         <v>41984</v>
       </c>
       <c r="B222">
-        <v>10125087.37220581</v>
+        <v>11005904.54329243</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2167,7 +2167,7 @@
         <v>41985</v>
       </c>
       <c r="B223">
-        <v>10125087.37220581</v>
+        <v>11041219.00308307</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2175,7 +2175,7 @@
         <v>41988</v>
       </c>
       <c r="B224">
-        <v>10125087.37220581</v>
+        <v>11147162.37674209</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2183,7 +2183,7 @@
         <v>41989</v>
       </c>
       <c r="B225">
-        <v>10125087.37220581</v>
+        <v>10992661.62586971</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2191,7 +2191,7 @@
         <v>41990</v>
       </c>
       <c r="B226">
-        <v>10125087.37220581</v>
+        <v>10908789.78886572</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2199,7 +2199,7 @@
         <v>41991</v>
       </c>
       <c r="B227">
-        <v>10125087.37220581</v>
+        <v>10948518.55255963</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2207,7 +2207,7 @@
         <v>41992</v>
       </c>
       <c r="B228">
-        <v>10125087.37220581</v>
+        <v>10970590.08921467</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2215,7 +2215,7 @@
         <v>41995</v>
       </c>
       <c r="B229">
-        <v>10125087.37220581</v>
+        <v>11014733.16252474</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2223,7 +2223,7 @@
         <v>41996</v>
       </c>
       <c r="B230">
-        <v>10125087.37220581</v>
+        <v>10736631.80524158</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2231,7 +2231,7 @@
         <v>41997</v>
       </c>
       <c r="B231">
-        <v>10125087.37220581</v>
+        <v>10599788.28140808</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2239,7 +2239,7 @@
         <v>41998</v>
       </c>
       <c r="B232">
-        <v>10125087.37220581</v>
+        <v>10723388.88210599</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2247,7 +2247,7 @@
         <v>41999</v>
       </c>
       <c r="B233">
-        <v>10125087.37220581</v>
+        <v>10674831.50489263</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2255,7 +2255,7 @@
         <v>42002</v>
       </c>
       <c r="B234">
-        <v>10125087.37220581</v>
+        <v>10643931.35471816</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2263,7 +2263,7 @@
         <v>42003</v>
       </c>
       <c r="B235">
-        <v>10125087.37220581</v>
+        <v>10833746.56538117</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2271,7 +2271,7 @@
         <v>42004</v>
       </c>
       <c r="B236">
-        <v>10125087.37220581</v>
+        <v>11270762.97743999</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -2279,7 +2279,7 @@
         <v>42009</v>
       </c>
       <c r="B237">
-        <v>10125087.37220581</v>
+        <v>10970590.08921467</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2287,7 +2287,7 @@
         <v>42010</v>
       </c>
       <c r="B238">
-        <v>10125087.37220581</v>
+        <v>10975004.39311795</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -2295,7 +2295,7 @@
         <v>42011</v>
       </c>
       <c r="B239">
-        <v>10125087.37220581</v>
+        <v>11257520.05430439</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -2303,7 +2303,7 @@
         <v>42012</v>
       </c>
       <c r="B240">
-        <v>10125087.37220581</v>
+        <v>11125090.84008705</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -2311,7 +2311,7 @@
         <v>42013</v>
       </c>
       <c r="B241">
-        <v>10125087.37220581</v>
+        <v>11120676.53047089</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -2319,7 +2319,7 @@
         <v>42016</v>
       </c>
       <c r="B242">
-        <v>10125087.37220581</v>
+        <v>11001490.23938914</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -2327,7 +2327,7 @@
         <v>42017</v>
       </c>
       <c r="B243">
-        <v>10125087.37220581</v>
+        <v>10741046.11485774</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -2335,7 +2335,7 @@
         <v>42018</v>
       </c>
       <c r="B244">
-        <v>10125087.37220581</v>
+        <v>10745460.41876102</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -2343,7 +2343,7 @@
         <v>42019</v>
       </c>
       <c r="B245">
-        <v>10125087.37220581</v>
+        <v>10674831.50489263</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -2351,7 +2351,7 @@
         <v>42020</v>
       </c>
       <c r="B246">
-        <v>10125087.37220581</v>
+        <v>10833746.56538117</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -2359,7 +2359,7 @@
         <v>42023</v>
       </c>
       <c r="B247">
-        <v>10125087.37220581</v>
+        <v>10745460.41876102</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -2367,7 +2367,7 @@
         <v>42024</v>
       </c>
       <c r="B248">
-        <v>10125087.37220581</v>
+        <v>10802846.41520669</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -2375,7 +2375,7 @@
         <v>42025</v>
       </c>
       <c r="B249">
-        <v>10125087.37220581</v>
+        <v>10683660.11841207</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -2383,7 +2383,7 @@
         <v>42026</v>
       </c>
       <c r="B250">
-        <v>10125087.37220581</v>
+        <v>10577716.74475305</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -2391,7 +2391,7 @@
         <v>42027</v>
       </c>
       <c r="B251">
-        <v>10125087.37220581</v>
+        <v>10652759.9682376</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -2399,7 +2399,7 @@
         <v>42030</v>
       </c>
       <c r="B252">
-        <v>10125087.37220581</v>
+        <v>10670417.19527647</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -2407,7 +2407,7 @@
         <v>42031</v>
       </c>
       <c r="B253">
-        <v>10125087.37220581</v>
+        <v>10546816.59457857</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -2415,7 +2415,7 @@
         <v>42032</v>
       </c>
       <c r="B254">
-        <v>10125087.37220581</v>
+        <v>10586545.36398535</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -2423,7 +2423,7 @@
         <v>42033</v>
       </c>
       <c r="B255">
-        <v>10125087.37220581</v>
+        <v>10626274.12767927</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -2431,7 +2431,7 @@
         <v>42034</v>
       </c>
       <c r="B256">
-        <v>10125087.37220581</v>
+        <v>10811675.02872613</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -2439,7 +2439,7 @@
         <v>42037</v>
       </c>
       <c r="B257">
-        <v>10125087.37220581</v>
+        <v>10763117.65151277</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -2447,7 +2447,7 @@
         <v>42038</v>
       </c>
       <c r="B258">
-        <v>10125087.37220581</v>
+        <v>10732217.5013383</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -2455,7 +2455,7 @@
         <v>42039</v>
       </c>
       <c r="B259">
-        <v>10125087.37220581</v>
+        <v>10661588.58175704</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -2463,7 +2463,7 @@
         <v>42040</v>
       </c>
       <c r="B260">
-        <v>10125087.37220581</v>
+        <v>10661588.58175704</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -2471,7 +2471,7 @@
         <v>42041</v>
       </c>
       <c r="B261">
-        <v>10125087.37220581</v>
+        <v>10643931.35471815</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -2479,7 +2479,7 @@
         <v>42044</v>
       </c>
       <c r="B262">
-        <v>10125087.37220581</v>
+        <v>10727803.19172214</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -2487,7 +2487,7 @@
         <v>42045</v>
       </c>
       <c r="B263">
-        <v>10125087.37220581</v>
+        <v>10648345.66433431</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -2495,7 +2495,7 @@
         <v>42046</v>
       </c>
       <c r="B264">
-        <v>10125087.37220581</v>
+        <v>10714560.26858655</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -2503,7 +2503,7 @@
         <v>42047</v>
       </c>
       <c r="B265">
-        <v>10125087.37220581</v>
+        <v>10705731.65506711</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -2511,7 +2511,7 @@
         <v>42048</v>
       </c>
       <c r="B266">
-        <v>10125087.37220581</v>
+        <v>10696903.04154767</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -2519,7 +2519,7 @@
         <v>42051</v>
       </c>
       <c r="B267">
-        <v>10125087.37220581</v>
+        <v>10811675.02872613</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -2527,7 +2527,7 @@
         <v>42052</v>
       </c>
       <c r="B268">
-        <v>10125087.37220581</v>
+        <v>10855818.1020362</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -2535,7 +2535,7 @@
         <v>42060</v>
       </c>
       <c r="B269">
-        <v>10125087.37220581</v>
+        <v>10807260.71910997</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -2543,7 +2543,7 @@
         <v>42061</v>
       </c>
       <c r="B270">
-        <v>10125087.37220581</v>
+        <v>10688074.42802822</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -2551,7 +2551,7 @@
         <v>42062</v>
       </c>
       <c r="B271">
-        <v>10125087.37220581</v>
+        <v>10794017.80168725</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -2559,7 +2559,7 @@
         <v>42065</v>
       </c>
       <c r="B272">
-        <v>10125087.37220581</v>
+        <v>10582131.0543692</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -2567,7 +2567,7 @@
         <v>42066</v>
       </c>
       <c r="B273">
-        <v>10125087.37220581</v>
+        <v>10599788.28140808</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -2575,7 +2575,7 @@
         <v>42067</v>
       </c>
       <c r="B274">
-        <v>10125087.37220581</v>
+        <v>10590959.66788864</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -2583,7 +2583,7 @@
         <v>42068</v>
       </c>
       <c r="B275">
-        <v>10125087.37220581</v>
+        <v>10599788.28140808</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -2591,7 +2591,7 @@
         <v>42069</v>
       </c>
       <c r="B276">
-        <v>10125087.37220581</v>
+        <v>10507087.83088465</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -2599,7 +2599,7 @@
         <v>42072</v>
       </c>
       <c r="B277">
-        <v>10125087.37220581</v>
+        <v>10274351.20928015</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -2607,7 +2607,7 @@
         <v>42073</v>
       </c>
       <c r="B278">
-        <v>10125087.37220581</v>
+        <v>10295659.20981126</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -2615,7 +2615,7 @@
         <v>42074</v>
       </c>
       <c r="B279">
-        <v>10125087.37220581</v>
+        <v>10159288.01441021</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -2623,7 +2623,7 @@
         <v>42075</v>
       </c>
       <c r="B280">
-        <v>10125087.37220581</v>
+        <v>10257304.8077127</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -2631,7 +2631,7 @@
         <v>42076</v>
       </c>
       <c r="B281">
-        <v>10125087.37220581</v>
+        <v>10389414.40415009</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -2639,7 +2639,7 @@
         <v>42079</v>
       </c>
       <c r="B282">
-        <v>10125087.37220581</v>
+        <v>10329752.0072333</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -2647,7 +2647,7 @@
         <v>42080</v>
       </c>
       <c r="B283">
-        <v>10125087.37220581</v>
+        <v>10453338.40574341</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -2655,7 +2655,7 @@
         <v>42081</v>
       </c>
       <c r="B284">
-        <v>10125087.37220581</v>
+        <v>10414984.00364484</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -2663,7 +2663,7 @@
         <v>42082</v>
       </c>
       <c r="B285">
-        <v>10125087.37220581</v>
+        <v>10282874.40720745</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -2671,7 +2671,7 @@
         <v>42083</v>
       </c>
       <c r="B286">
-        <v>10125087.37220581</v>
+        <v>10291397.60513474</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -2679,7 +2679,7 @@
         <v>42086</v>
       </c>
       <c r="B287">
-        <v>10125087.37220581</v>
+        <v>10295659.20981126</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -2687,7 +2687,7 @@
         <v>42087</v>
       </c>
       <c r="B288">
-        <v>10125087.37220581</v>
+        <v>10581186.39750429</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -2695,7 +2695,7 @@
         <v>42088</v>
       </c>
       <c r="B289">
-        <v>10125087.37220581</v>
+        <v>10530047.19851479</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -2703,7 +2703,7 @@
         <v>42089</v>
       </c>
       <c r="B290">
-        <v>10125087.37220581</v>
+        <v>10376629.60725915</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -2711,7 +2711,7 @@
         <v>42090</v>
       </c>
       <c r="B291">
-        <v>10125087.37220581</v>
+        <v>10346798.40880075</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -2719,7 +2719,7 @@
         <v>42093</v>
       </c>
       <c r="B292">
-        <v>10125087.37220581</v>
+        <v>10248781.6097854</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -2727,7 +2727,7 @@
         <v>42094</v>
       </c>
       <c r="B293">
-        <v>10125087.37220581</v>
+        <v>10244520.01082176</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -2735,7 +2735,7 @@
         <v>42095</v>
       </c>
       <c r="B294">
-        <v>10125087.37220581</v>
+        <v>10039963.21486375</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -2743,7 +2743,7 @@
         <v>42096</v>
       </c>
       <c r="B295">
-        <v>10125087.37220581</v>
+        <v>9843929.622545913</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -2751,7 +2751,7 @@
         <v>42097</v>
       </c>
       <c r="B296">
-        <v>10125087.37220581</v>
+        <v>9699035.223504705</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -2759,7 +2759,7 @@
         <v>42101</v>
       </c>
       <c r="B297">
-        <v>10125087.37220581</v>
+        <v>9643634.425551556</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -2767,7 +2767,7 @@
         <v>42102</v>
       </c>
       <c r="B298">
-        <v>10114962.2848336</v>
+        <v>9521885.143834498</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -2775,7 +2775,7 @@
         <v>42103</v>
       </c>
       <c r="B299">
-        <v>10030119.67113301</v>
+        <v>9450791.566668134</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -2783,7 +2783,7 @@
         <v>42104</v>
       </c>
       <c r="B300">
-        <v>10020089.55146188</v>
+        <v>9584484.6538829</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -2791,7 +2791,7 @@
         <v>42107</v>
       </c>
       <c r="B301">
-        <v>10142562.48621608</v>
+        <v>9699740.549783407</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -2799,7 +2799,7 @@
         <v>42108</v>
       </c>
       <c r="B302">
-        <v>9813422.687840501</v>
+        <v>9394798.922877392</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -2807,7 +2807,7 @@
         <v>42109</v>
       </c>
       <c r="B303">
-        <v>9813422.687840501</v>
+        <v>9428681.323974414</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -2815,7 +2815,7 @@
         <v>42110</v>
       </c>
       <c r="B304">
-        <v>9813422.687840501</v>
+        <v>9559975.634612679</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -2823,7 +2823,7 @@
         <v>42111</v>
       </c>
       <c r="B305">
-        <v>9813422.687840501</v>
+        <v>9471034.329603897</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -2831,7 +2831,7 @@
         <v>42114</v>
       </c>
       <c r="B306">
-        <v>9813422.687840501</v>
+        <v>9521857.934088232</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -2839,7 +2839,7 @@
         <v>42115</v>
       </c>
       <c r="B307">
-        <v>9813422.687840501</v>
+        <v>9640446.340766607</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -2847,7 +2847,7 @@
         <v>42116</v>
       </c>
       <c r="B308">
-        <v>9813422.687840501</v>
+        <v>9619269.837951867</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -2855,7 +2855,7 @@
         <v>42117</v>
       </c>
       <c r="B309">
-        <v>9813422.687840501</v>
+        <v>9424446.024546986</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -2863,7 +2863,7 @@
         <v>42118</v>
       </c>
       <c r="B310">
-        <v>9813422.687840501</v>
+        <v>9437151.928506877</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -2871,7 +2871,7 @@
         <v>42121</v>
       </c>
       <c r="B311">
-        <v>9813422.687840501</v>
+        <v>9187269.205512626</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -2879,7 +2879,7 @@
         <v>42122</v>
       </c>
       <c r="B312">
-        <v>9813422.687840501</v>
+        <v>9047504.296019509</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -2887,7 +2887,7 @@
         <v>42123</v>
       </c>
       <c r="B313">
-        <v>9813422.687840501</v>
+        <v>9127975.002173439</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -2895,7 +2895,7 @@
         <v>42124</v>
       </c>
       <c r="B314">
-        <v>9813422.687840501</v>
+        <v>9348210.617820488</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -2903,7 +2903,7 @@
         <v>42128</v>
       </c>
       <c r="B315">
-        <v>9813422.687840501</v>
+        <v>9191504.504940053</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -2911,7 +2911,7 @@
         <v>42129</v>
       </c>
       <c r="B316">
-        <v>9813422.687840501</v>
+        <v>9060210.194301788</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -2919,7 +2919,7 @@
         <v>42130</v>
       </c>
       <c r="B317">
-        <v>9813422.687840501</v>
+        <v>8992445.392107747</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -2927,7 +2927,7 @@
         <v>42131</v>
       </c>
       <c r="B318">
-        <v>9813422.687840501</v>
+        <v>8979739.488147857</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -2935,7 +2935,7 @@
         <v>42132</v>
       </c>
       <c r="B319">
-        <v>9813422.687840501</v>
+        <v>9077151.397689102</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -2943,7 +2943,7 @@
         <v>42135</v>
       </c>
       <c r="B320">
-        <v>9813422.687840501</v>
+        <v>9047504.296019509</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -2951,7 +2951,7 @@
         <v>42136</v>
       </c>
       <c r="B321">
-        <v>9813422.687840501</v>
+        <v>9034798.392059619</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -2959,7 +2959,7 @@
         <v>42137</v>
       </c>
       <c r="B322">
-        <v>9813422.687840501</v>
+        <v>9140680.900455717</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -2967,7 +2967,7 @@
         <v>42138</v>
       </c>
       <c r="B323">
-        <v>9813422.687840501</v>
+        <v>9187269.205512624</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -2975,7 +2975,7 @@
         <v>42139</v>
       </c>
       <c r="B324">
-        <v>9813422.687840501</v>
+        <v>9288916.414481295</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -2983,7 +2983,7 @@
         <v>42142</v>
       </c>
       <c r="B325">
-        <v>9813422.687840501</v>
+        <v>9238092.809996961</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -2991,7 +2991,7 @@
         <v>42143</v>
       </c>
       <c r="B326">
-        <v>9813422.687840501</v>
+        <v>9365151.821207801</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -2999,7 +2999,7 @@
         <v>42144</v>
       </c>
       <c r="B327">
-        <v>9813422.687840501</v>
+        <v>9386328.324022541</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -3007,7 +3007,7 @@
         <v>42145</v>
       </c>
       <c r="B328">
-        <v>9813422.687840501</v>
+        <v>9483740.227886176</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -3015,7 +3015,7 @@
         <v>42146</v>
       </c>
       <c r="B329">
-        <v>9813422.687840501</v>
+        <v>9348210.617820486</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -3023,7 +3023,7 @@
         <v>42149</v>
       </c>
       <c r="B330">
-        <v>9813422.687840501</v>
+        <v>9339740.018965634</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -3031,7 +3031,7 @@
         <v>42150</v>
       </c>
       <c r="B331">
-        <v>9813422.687840501</v>
+        <v>9339740.018965634</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -3039,7 +3039,7 @@
         <v>42151</v>
       </c>
       <c r="B332">
-        <v>9813422.687840501</v>
+        <v>9331269.420110781</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -3047,7 +3047,7 @@
         <v>42152</v>
       </c>
       <c r="B333">
-        <v>9813422.687840501</v>
+        <v>9310092.917296039</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -3055,7 +3055,7 @@
         <v>42153</v>
       </c>
       <c r="B334">
-        <v>9813422.687840501</v>
+        <v>9310092.917296039</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -3063,7 +3063,7 @@
         <v>42156</v>
       </c>
       <c r="B335">
-        <v>9813422.687840501</v>
+        <v>9305857.617868612</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -3071,7 +3071,7 @@
         <v>42157</v>
       </c>
       <c r="B336">
-        <v>9813422.687840501</v>
+        <v>9225386.911714682</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -3079,7 +3079,7 @@
         <v>42158</v>
       </c>
       <c r="B337">
-        <v>9813422.687840501</v>
+        <v>9212681.007754792</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -3087,7 +3087,7 @@
         <v>42159</v>
       </c>
       <c r="B338">
-        <v>9813422.687840501</v>
+        <v>9343975.318393057</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -3095,7 +3095,7 @@
         <v>42160</v>
       </c>
       <c r="B339">
-        <v>9813422.687840501</v>
+        <v>9305857.617868612</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -3103,7 +3103,7 @@
         <v>42163</v>
       </c>
       <c r="B340">
-        <v>9813422.687840501</v>
+        <v>9382093.024595115</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -3111,7 +3111,7 @@
         <v>42164</v>
       </c>
       <c r="B341">
-        <v>9813422.687840501</v>
+        <v>9415975.425692135</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -3119,7 +3119,7 @@
         <v>42165</v>
       </c>
       <c r="B342">
-        <v>9813422.687840501</v>
+        <v>9382093.024595115</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -3127,7 +3127,7 @@
         <v>42166</v>
       </c>
       <c r="B343">
-        <v>9813422.687840501</v>
+        <v>9356681.222352948</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -3135,7 +3135,7 @@
         <v>42167</v>
       </c>
       <c r="B344">
-        <v>9813422.687840501</v>
+        <v>9339740.018965634</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -3143,7 +3143,7 @@
         <v>42170</v>
       </c>
       <c r="B345">
-        <v>9813422.687840501</v>
+        <v>9551505.035757827</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -3151,7 +3151,7 @@
         <v>42171</v>
       </c>
       <c r="B346">
-        <v>9813422.687840501</v>
+        <v>9657387.544153925</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -3159,7 +3159,7 @@
         <v>42172</v>
       </c>
       <c r="B347">
-        <v>9813422.687840501</v>
+        <v>9797152.45364704</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -3167,7 +3167,7 @@
         <v>42173</v>
       </c>
       <c r="B348">
-        <v>9813422.687840501</v>
+        <v>9856446.656986227</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -3175,7 +3175,7 @@
         <v>42174</v>
       </c>
       <c r="B349">
-        <v>9813422.687840501</v>
+        <v>9775975.950832298</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -3183,7 +3183,7 @@
         <v>42178</v>
       </c>
       <c r="B350">
-        <v>9813422.687840501</v>
+        <v>9797152.45364704</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -3191,7 +3191,7 @@
         <v>42179</v>
       </c>
       <c r="B351">
-        <v>9813422.687840501</v>
+        <v>9801387.753074467</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -3199,7 +3199,7 @@
         <v>42180</v>
       </c>
       <c r="B352">
-        <v>9813422.687840501</v>
+        <v>9788681.854792189</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -3207,7 +3207,7 @@
         <v>42181</v>
       </c>
       <c r="B353">
-        <v>9813422.687840501</v>
+        <v>9894564.363188287</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -3215,7 +3215,7 @@
         <v>42184</v>
       </c>
       <c r="B354">
-        <v>9813422.687840501</v>
+        <v>9903034.962043138</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -3223,7 +3223,7 @@
         <v>42185</v>
       </c>
       <c r="B355">
-        <v>9803609.265152661</v>
+        <v>10050600.39583427</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -3231,7 +3231,7 @@
         <v>42186</v>
       </c>
       <c r="B356">
-        <v>10005987.15863061</v>
+        <v>10254668.85530196</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -3239,7 +3239,7 @@
         <v>42187</v>
       </c>
       <c r="B357">
-        <v>10074593.71733761</v>
+        <v>10325007.28876492</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -3247,7 +3247,7 @@
         <v>42188</v>
       </c>
       <c r="B358">
-        <v>10093385.45488974</v>
+        <v>10344266.0360366</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -3255,7 +3255,7 @@
         <v>42191</v>
       </c>
       <c r="B359">
-        <v>10093366.66315219</v>
+        <v>10344246.77728932</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -3263,7 +3263,7 @@
         <v>42192</v>
       </c>
       <c r="B360">
-        <v>10631841.16359279</v>
+        <v>10896105.56749141</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -3271,7 +3271,7 @@
         <v>42193</v>
       </c>
       <c r="B361">
-        <v>10822597.93837259</v>
+        <v>11091603.78118117</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -3279,7 +3279,7 @@
         <v>42194</v>
       </c>
       <c r="B362">
-        <v>11146718.91962068</v>
+        <v>11423781.09402626</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -3287,7 +3287,7 @@
         <v>42195</v>
       </c>
       <c r="B363">
-        <v>10481910.30011237</v>
+        <v>10754209.20716264</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -3295,7 +3295,7 @@
         <v>42198</v>
       </c>
       <c r="B364">
-        <v>10481910.30011237</v>
+        <v>10859011.763571</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -3303,7 +3303,7 @@
         <v>42199</v>
       </c>
       <c r="B365">
-        <v>10481910.30011237</v>
+        <v>10765853.94085589</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -3311,7 +3311,7 @@
         <v>42200</v>
       </c>
       <c r="B366">
-        <v>10481910.30011237</v>
+        <v>10835722.31179479</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -3319,7 +3319,7 @@
         <v>42201</v>
       </c>
       <c r="B367">
-        <v>10481910.30011237</v>
+        <v>10928880.1345099</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -3327,7 +3327,7 @@
         <v>42202</v>
       </c>
       <c r="B368">
-        <v>10481910.30011237</v>
+        <v>10824077.57810155</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -3335,7 +3335,7 @@
         <v>42205</v>
       </c>
       <c r="B369">
-        <v>10481910.30011237</v>
+        <v>10817089.08787853</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -3343,7 +3343,7 @@
         <v>42206</v>
       </c>
       <c r="B370">
-        <v>10481910.30011237</v>
+        <v>10491342.70117271</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -3351,7 +3351,7 @@
         <v>42207</v>
       </c>
       <c r="B371">
-        <v>10481910.30011237</v>
+        <v>10662788.16909237</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -3359,7 +3359,7 @@
         <v>42208</v>
       </c>
       <c r="B372">
-        <v>10481910.30011237</v>
+        <v>10908526.67285038</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -3367,7 +3367,7 @@
         <v>42209</v>
       </c>
       <c r="B373">
-        <v>10481910.30011237</v>
+        <v>10799944.53874502</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -3375,7 +3375,7 @@
         <v>42212</v>
       </c>
       <c r="B374">
-        <v>10481910.30011237</v>
+        <v>10811374.24076907</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -3383,7 +3383,7 @@
         <v>42213</v>
       </c>
       <c r="B375">
-        <v>10481910.30011237</v>
+        <v>10674217.86331129</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -3391,7 +3391,7 @@
         <v>42214</v>
       </c>
       <c r="B376">
-        <v>10481910.30011237</v>
+        <v>10651358.46706832</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -3399,7 +3399,7 @@
         <v>42215</v>
       </c>
       <c r="B377">
-        <v>10481910.30011237</v>
+        <v>10468483.30492975</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -3407,7 +3407,7 @@
         <v>42216</v>
       </c>
       <c r="B378">
-        <v>10481910.30011237</v>
+        <v>10617069.37660645</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -3415,7 +3415,7 @@
         <v>42219</v>
       </c>
       <c r="B379">
-        <v>10481910.30011237</v>
+        <v>10542776.3407681</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -3423,7 +3423,7 @@
         <v>42220</v>
       </c>
       <c r="B380">
-        <v>10481910.30011237</v>
+        <v>10611354.52949699</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -3431,7 +3431,7 @@
         <v>42221</v>
       </c>
       <c r="B381">
-        <v>10481910.30011237</v>
+        <v>10537061.49365865</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -3439,7 +3439,7 @@
         <v>42222</v>
       </c>
       <c r="B382">
-        <v>10481910.30011237</v>
+        <v>10519916.94452514</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -3447,7 +3447,7 @@
         <v>42223</v>
       </c>
       <c r="B383">
-        <v>10481910.30011237</v>
+        <v>10679932.71822589</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -3455,7 +3455,7 @@
         <v>42226</v>
       </c>
       <c r="B384">
-        <v>10481910.30011237</v>
+        <v>10759940.60117369</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -3463,7 +3463,7 @@
         <v>42227</v>
       </c>
       <c r="B385">
-        <v>10481910.30011237</v>
+        <v>10834233.63701204</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -3471,7 +3471,7 @@
         <v>42228</v>
       </c>
       <c r="B386">
-        <v>10481910.30011237</v>
+        <v>10805659.39365962</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -3479,7 +3479,7 @@
         <v>42229</v>
       </c>
       <c r="B387">
-        <v>10481910.30011237</v>
+        <v>10628499.07082536</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -3487,7 +3487,7 @@
         <v>42230</v>
       </c>
       <c r="B388">
-        <v>10481910.30011237</v>
+        <v>10577065.43122998</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -3495,7 +3495,7 @@
         <v>42233</v>
       </c>
       <c r="B389">
-        <v>10481910.30011237</v>
+        <v>10577065.43122998</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -3503,7 +3503,7 @@
         <v>42234</v>
       </c>
       <c r="B390">
-        <v>10481910.30011237</v>
+        <v>10771370.2953926</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -3511,7 +3511,7 @@
         <v>42235</v>
       </c>
       <c r="B391">
-        <v>10481910.30011237</v>
+        <v>10805659.39365962</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -3519,7 +3519,7 @@
         <v>42236</v>
       </c>
       <c r="B392">
-        <v>10481910.30011237</v>
+        <v>10845663.33123095</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -3527,7 +3527,7 @@
         <v>42237</v>
       </c>
       <c r="B393">
-        <v>10481910.30011237</v>
+        <v>10891382.12371688</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -3535,7 +3535,7 @@
         <v>42240</v>
       </c>
       <c r="B394">
-        <v>10481910.30011237</v>
+        <v>10965675.15955523</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -3543,7 +3543,7 @@
         <v>42241</v>
       </c>
       <c r="B395">
-        <v>10481910.30011237</v>
+        <v>11451437.31996179</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -3551,7 +3551,7 @@
         <v>42242</v>
       </c>
       <c r="B396">
-        <v>10481910.30011237</v>
+        <v>11308566.09539455</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -3559,7 +3559,7 @@
         <v>42243</v>
       </c>
       <c r="B397">
-        <v>10481910.30011237</v>
+        <v>11457152.16707125</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -3567,7 +3567,7 @@
         <v>42244</v>
       </c>
       <c r="B398">
-        <v>10481910.30011237</v>
+        <v>11257132.45579917</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -3575,7 +3575,7 @@
         <v>42247</v>
       </c>
       <c r="B399">
-        <v>10481910.30011237</v>
+        <v>11245702.76158026</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -3583,7 +3583,7 @@
         <v>42248</v>
       </c>
       <c r="B400">
-        <v>10481910.30011237</v>
+        <v>11342855.19366157</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -3591,7 +3591,7 @@
         <v>42249</v>
       </c>
       <c r="B401">
-        <v>10481910.30011237</v>
+        <v>11314280.95030915</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -3599,7 +3599,7 @@
         <v>42254</v>
       </c>
       <c r="B402">
-        <v>10481910.30011237</v>
+        <v>11348570.04077103</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -3607,7 +3607,7 @@
         <v>42255</v>
       </c>
       <c r="B403">
-        <v>10481910.30011237</v>
+        <v>11542874.90493365</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -3615,7 +3615,7 @@
         <v>42256</v>
       </c>
       <c r="B404">
-        <v>10481910.30011237</v>
+        <v>11359999.73498994</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -3623,7 +3623,7 @@
         <v>42257</v>
       </c>
       <c r="B405">
-        <v>10481910.30011237</v>
+        <v>11371429.43701399</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -3631,7 +3631,7 @@
         <v>42258</v>
       </c>
       <c r="B406">
-        <v>10481910.30011237</v>
+        <v>11331425.49163751</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -3639,7 +3639,7 @@
         <v>42261</v>
       </c>
       <c r="B407">
-        <v>10481910.30011237</v>
+        <v>11405718.52747586</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -3647,7 +3647,7 @@
         <v>42262</v>
       </c>
       <c r="B408">
-        <v>10481910.30011237</v>
+        <v>11514300.66158123</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -3655,7 +3655,7 @@
         <v>42263</v>
       </c>
       <c r="B409">
-        <v>10481910.30011237</v>
+        <v>11600023.39163849</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -3663,7 +3663,7 @@
         <v>42264</v>
       </c>
       <c r="B410">
-        <v>10481910.30011237</v>
+        <v>11468581.8690953</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -3671,7 +3671,7 @@
         <v>42265</v>
       </c>
       <c r="B411">
-        <v>10481910.30011237</v>
+        <v>11497156.11244772</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -3679,7 +3679,7 @@
         <v>42268</v>
       </c>
       <c r="B412">
-        <v>10481910.30011237</v>
+        <v>11542874.90493365</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -3687,7 +3687,7 @@
         <v>42269</v>
       </c>
       <c r="B413">
-        <v>10481910.30011237</v>
+        <v>11611453.09366255</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -3695,7 +3695,7 @@
         <v>42270</v>
       </c>
       <c r="B414">
-        <v>10481910.30011237</v>
+        <v>11731464.92198682</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -3703,7 +3703,7 @@
         <v>42271</v>
       </c>
       <c r="B415">
-        <v>10481910.30011237</v>
+        <v>11628597.63499091</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -3711,7 +3711,7 @@
         <v>42272</v>
       </c>
       <c r="B416">
-        <v>10481910.30011237</v>
+        <v>11702890.6786344</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -3719,7 +3719,7 @@
         <v>42275</v>
       </c>
       <c r="B417">
-        <v>10481910.30011237</v>
+        <v>11742894.61620573</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -3727,7 +3727,7 @@
         <v>42276</v>
       </c>
       <c r="B418">
-        <v>10481910.30011237</v>
+        <v>11931484.6332589</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -3735,7 +3735,7 @@
         <v>42277</v>
       </c>
       <c r="B419">
-        <v>10481910.30011237</v>
+        <v>12017207.36331616</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -3743,7 +3743,7 @@
         <v>42285</v>
       </c>
       <c r="B420">
-        <v>10481910.30011237</v>
+        <v>12017207.36331616</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -3751,7 +3751,7 @@
         <v>42286</v>
       </c>
       <c r="B421">
-        <v>10481910.30011237</v>
+        <v>12080070.7049356</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -3759,7 +3759,7 @@
         <v>42289</v>
       </c>
       <c r="B422">
-        <v>10481910.30011237</v>
+        <v>11902910.38990648</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -3767,7 +3767,7 @@
         <v>42290</v>
       </c>
       <c r="B423">
-        <v>10481910.30011237</v>
+        <v>11954344.02950187</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -3775,7 +3775,7 @@
         <v>42291</v>
       </c>
       <c r="B424">
-        <v>10481910.30011237</v>
+        <v>12022922.21823076</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -3783,7 +3783,7 @@
         <v>42292</v>
       </c>
       <c r="B425">
-        <v>10481910.30011237</v>
+        <v>12051496.46158318</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -3791,7 +3791,7 @@
         <v>42293</v>
       </c>
       <c r="B426">
-        <v>10481910.30011237</v>
+        <v>12034351.91244967</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -3799,7 +3799,7 @@
         <v>42296</v>
       </c>
       <c r="B427">
-        <v>10481910.30011237</v>
+        <v>12062926.15580209</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -3807,7 +3807,7 @@
         <v>42297</v>
       </c>
       <c r="B428">
-        <v>10481910.30011237</v>
+        <v>12194367.68615042</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -3815,7 +3815,7 @@
         <v>42298</v>
       </c>
       <c r="B429">
-        <v>10481910.30011237</v>
+        <v>12228656.7766123</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -3823,7 +3823,7 @@
         <v>42299</v>
       </c>
       <c r="B430">
-        <v>10481910.30011237</v>
+        <v>12205797.38036933</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -3831,7 +3831,7 @@
         <v>42300</v>
       </c>
       <c r="B431">
-        <v>10481910.30011237</v>
+        <v>12200082.53325988</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -3839,7 +3839,7 @@
         <v>42303</v>
       </c>
       <c r="B432">
-        <v>10481910.30011237</v>
+        <v>12211512.22747879</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -3847,7 +3847,7 @@
         <v>42304</v>
       </c>
       <c r="B433">
-        <v>10481910.30011237</v>
+        <v>12228656.7766123</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -3855,7 +3855,7 @@
         <v>42305</v>
       </c>
       <c r="B434">
-        <v>10481910.30011237</v>
+        <v>12217227.08239339</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -3863,7 +3863,7 @@
         <v>42306</v>
       </c>
       <c r="B435">
-        <v>10481910.30011237</v>
+        <v>12285805.27112228</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -3871,7 +3871,7 @@
         <v>42307</v>
       </c>
       <c r="B436">
-        <v>10481910.30011237</v>
+        <v>12251516.17285526</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -3879,7 +3879,7 @@
         <v>42310</v>
       </c>
       <c r="B437">
-        <v>10481910.30011237</v>
+        <v>12331524.05580307</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -3887,7 +3887,7 @@
         <v>42311</v>
       </c>
       <c r="B438">
-        <v>10481910.30011237</v>
+        <v>12314379.5144747</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -3895,7 +3895,7 @@
         <v>42312</v>
       </c>
       <c r="B439">
-        <v>10481910.30011237</v>
+        <v>12365803.52252454</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -3903,7 +3903,7 @@
         <v>42313</v>
       </c>
       <c r="B440">
-        <v>10481910.30011237</v>
+        <v>12342956.96574059</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -3911,7 +3911,7 @@
         <v>42314</v>
       </c>
       <c r="B441">
-        <v>10481910.30011237</v>
+        <v>12365803.52252454</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -3919,7 +3919,7 @@
         <v>42317</v>
       </c>
       <c r="B442">
-        <v>10481910.30011237</v>
+        <v>12285840.58158585</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -3927,7 +3927,7 @@
         <v>42318</v>
       </c>
       <c r="B443">
-        <v>10481910.30011237</v>
+        <v>12200166.00925632</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -3935,7 +3935,7 @@
         <v>42319</v>
       </c>
       <c r="B444">
-        <v>10481910.30011237</v>
+        <v>12262994.03260704</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -3943,7 +3943,7 @@
         <v>42320</v>
       </c>
       <c r="B445">
-        <v>10481910.30011237</v>
+        <v>12348668.60493658</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -3951,7 +3951,7 @@
         <v>42321</v>
       </c>
       <c r="B446">
-        <v>10481910.30011237</v>
+        <v>12440054.81646209</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -3959,7 +3959,7 @@
         <v>42324</v>
       </c>
       <c r="B447">
-        <v>10481910.30011237</v>
+        <v>12468613.01244203</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -3967,7 +3967,7 @@
         <v>42325</v>
       </c>
       <c r="B448">
-        <v>10481910.30011237</v>
+        <v>12502882.83981282</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -3975,7 +3975,7 @@
         <v>42326</v>
       </c>
       <c r="B449">
-        <v>10481910.30011237</v>
+        <v>12508594.47900881</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -3983,7 +3983,7 @@
         <v>42327</v>
       </c>
       <c r="B450">
-        <v>10481910.30011237</v>
+        <v>12599980.69053433</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -3991,7 +3991,7 @@
         <v>42328</v>
       </c>
       <c r="B451">
-        <v>10471428.38981226</v>
+        <v>12779885.77245379</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -3999,7 +3999,7 @@
         <v>42331</v>
       </c>
       <c r="B452">
-        <v>10526745.71157304</v>
+        <v>12846188.51168176</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -4007,7 +4007,7 @@
         <v>42332</v>
       </c>
       <c r="B453">
-        <v>10742698.35324073</v>
+        <v>13109749.76184753</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -4015,7 +4015,7 @@
         <v>42333</v>
       </c>
       <c r="B454">
-        <v>10704471.97365803</v>
+        <v>13063100.62966472</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -4023,7 +4023,7 @@
         <v>42334</v>
       </c>
       <c r="B455">
-        <v>10648546.75202746</v>
+        <v>13008017.65009263</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -4031,7 +4031,7 @@
         <v>42335</v>
       </c>
       <c r="B456">
-        <v>10648546.75202746</v>
+        <v>12952934.65976728</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -4039,7 +4039,7 @@
         <v>42338</v>
       </c>
       <c r="B457">
-        <v>10648546.75202746</v>
+        <v>13173266.58880892</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -4047,7 +4047,7 @@
         <v>42339</v>
       </c>
       <c r="B458">
-        <v>10637898.20527543</v>
+        <v>13361759.99540075</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -4055,7 +4055,7 @@
         <v>42340</v>
       </c>
       <c r="B459">
-        <v>10614154.82206947</v>
+        <v>13345576.6188222</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -4063,7 +4063,7 @@
         <v>42341</v>
       </c>
       <c r="B460">
-        <v>10614154.82206947</v>
+        <v>13127101.06818445</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -4071,7 +4071,7 @@
         <v>42342</v>
       </c>
       <c r="B461">
-        <v>10614154.82206947</v>
+        <v>13305118.17737582</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -4079,7 +4079,7 @@
         <v>42345</v>
       </c>
       <c r="B462">
-        <v>10614154.82206947</v>
+        <v>13167559.49857327</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -4087,7 +4087,7 @@
         <v>42346</v>
       </c>
       <c r="B463">
-        <v>10614154.82206947</v>
+        <v>13038092.50805999</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -4095,7 +4095,7 @@
         <v>42347</v>
       </c>
       <c r="B464">
-        <v>10614154.82206947</v>
+        <v>13175651.18686254</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -4103,7 +4103,7 @@
         <v>42348</v>
       </c>
       <c r="B465">
-        <v>10614154.82206947</v>
+        <v>13135192.75647373</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -4111,7 +4111,7 @@
         <v>42349</v>
       </c>
       <c r="B466">
-        <v>10614154.82206947</v>
+        <v>13216109.62830891</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -4119,7 +4119,7 @@
         <v>42352</v>
       </c>
       <c r="B467">
-        <v>10614154.82206947</v>
+        <v>13110917.69160591</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -4127,7 +4127,7 @@
         <v>42353</v>
       </c>
       <c r="B468">
-        <v>10614154.82206947</v>
+        <v>13094734.31502735</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -4135,7 +4135,7 @@
         <v>42354</v>
       </c>
       <c r="B469">
-        <v>10614154.82206947</v>
+        <v>13135192.75647373</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -4143,7 +4143,7 @@
         <v>42355</v>
       </c>
       <c r="B470">
-        <v>10614154.82206947</v>
+        <v>12997634.07767118</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -4151,7 +4151,7 @@
         <v>42356</v>
       </c>
       <c r="B471">
-        <v>10614154.82206947</v>
+        <v>12973359.01280335</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -4159,7 +4159,7 @@
         <v>42359</v>
       </c>
       <c r="B472">
-        <v>10614154.82206947</v>
+        <v>12625416.47165233</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -4167,7 +4167,7 @@
         <v>42360</v>
       </c>
       <c r="B473">
-        <v>10614154.82206947</v>
+        <v>12382665.85614676</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -4175,7 +4175,7 @@
         <v>42361</v>
       </c>
       <c r="B474">
-        <v>10614154.82206947</v>
+        <v>12552591.27704886</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -4183,7 +4183,7 @@
         <v>42362</v>
       </c>
       <c r="B475">
-        <v>10614154.82206947</v>
+        <v>12641599.83717332</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -4191,7 +4191,7 @@
         <v>42363</v>
       </c>
       <c r="B476">
-        <v>10614154.82206947</v>
+        <v>12601141.40678451</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -4199,7 +4199,7 @@
         <v>42366</v>
       </c>
       <c r="B477">
-        <v>10614154.82206947</v>
+        <v>12479766.09350295</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -4207,7 +4207,7 @@
         <v>42367</v>
       </c>
       <c r="B478">
-        <v>10614154.82206947</v>
+        <v>12455491.03969268</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -4215,7 +4215,7 @@
         <v>42368</v>
       </c>
       <c r="B479">
-        <v>10614154.82206947</v>
+        <v>12139915.2406412</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -4223,7 +4223,7 @@
         <v>42369</v>
       </c>
       <c r="B480">
-        <v>10614154.82206947</v>
+        <v>12115640.17577338</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -4231,7 +4231,7 @@
         <v>42373</v>
       </c>
       <c r="B481">
-        <v>10614154.82206947</v>
+        <v>11800064.38777946</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -4239,7 +4239,7 @@
         <v>42374</v>
       </c>
       <c r="B482">
-        <v>10614154.82206947</v>
+        <v>12139915.2406412</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -4247,7 +4247,7 @@
         <v>42375</v>
       </c>
       <c r="B483">
-        <v>10614154.82206947</v>
+        <v>12075181.74538456</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -4255,7 +4255,7 @@
         <v>42376</v>
       </c>
       <c r="B484">
-        <v>10614154.82206947</v>
+        <v>12212740.42418711</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -4263,7 +4263,7 @@
         <v>42377</v>
       </c>
       <c r="B485">
-        <v>10614154.82206947</v>
+        <v>12220832.11247639</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -4271,7 +4271,7 @@
         <v>42380</v>
       </c>
       <c r="B486">
-        <v>10614154.82206947</v>
+        <v>12317932.36089013</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -4279,7 +4279,7 @@
         <v>42381</v>
       </c>
       <c r="B487">
-        <v>10614154.82206947</v>
+        <v>12301748.98431158</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -4287,7 +4287,7 @@
         <v>42382</v>
       </c>
       <c r="B488">
-        <v>10614154.82206947</v>
+        <v>12447399.3514034</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -4295,7 +4295,7 @@
         <v>42383</v>
       </c>
       <c r="B489">
-        <v>10614154.82206947</v>
+        <v>12439307.66311413</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -4303,7 +4303,7 @@
         <v>42384</v>
       </c>
       <c r="B490">
-        <v>10614154.82206947</v>
+        <v>12309840.67260085</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -4311,7 +4311,7 @@
         <v>42387</v>
       </c>
       <c r="B491">
-        <v>10614154.82206947</v>
+        <v>12156098.61721975</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -4319,7 +4319,7 @@
         <v>42388</v>
       </c>
       <c r="B492">
-        <v>10614154.82206947</v>
+        <v>11767697.63462236</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -4327,7 +4327,7 @@
         <v>42389</v>
       </c>
       <c r="B493">
-        <v>10614154.82206947</v>
+        <v>11662505.69791935</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -4335,7 +4335,7 @@
         <v>42390</v>
       </c>
       <c r="B494">
-        <v>10614154.82206947</v>
+        <v>11848614.50645754</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -4343,7 +4343,7 @@
         <v>42391</v>
       </c>
       <c r="B495">
-        <v>10614154.82206947</v>
+        <v>11889072.93684636</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -4351,7 +4351,7 @@
         <v>42394</v>
       </c>
       <c r="B496">
-        <v>10614154.82206947</v>
+        <v>11743422.56975453</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -4359,7 +4359,7 @@
         <v>42395</v>
       </c>
       <c r="B497">
-        <v>10614154.82206947</v>
+        <v>11646322.33239836</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -4367,7 +4367,7 @@
         <v>42396</v>
       </c>
       <c r="B498">
-        <v>10614154.82206947</v>
+        <v>11565405.46056316</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -4375,7 +4375,7 @@
         <v>42397</v>
       </c>
       <c r="B499">
-        <v>10614154.82206947</v>
+        <v>11476396.9004387</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -4383,7 +4383,7 @@
         <v>42398</v>
       </c>
       <c r="B500">
-        <v>10614154.82206947</v>
+        <v>11864797.88303609</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -4391,7 +4391,7 @@
         <v>42401</v>
       </c>
       <c r="B501">
-        <v>10614154.82206947</v>
+        <v>11840522.81816827</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -4399,7 +4399,7 @@
         <v>42402</v>
       </c>
       <c r="B502">
-        <v>10614154.82206947</v>
+        <v>11808156.06501117</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -4407,7 +4407,7 @@
         <v>42403</v>
       </c>
       <c r="B503">
-        <v>10614154.82206947</v>
+        <v>11808156.06501117</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -4415,7 +4415,7 @@
         <v>42404</v>
       </c>
       <c r="B504">
-        <v>10614154.82206947</v>
+        <v>11759605.94633308</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -4423,7 +4423,7 @@
         <v>42405</v>
       </c>
       <c r="B505">
-        <v>10614154.82206947</v>
+        <v>11541130.39569534</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -4431,7 +4431,7 @@
         <v>42415</v>
       </c>
       <c r="B506">
-        <v>10614154.82206947</v>
+        <v>11686780.76278717</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -4439,7 +4439,7 @@
         <v>42416</v>
       </c>
       <c r="B507">
-        <v>10614154.82206947</v>
+        <v>11387388.34031424</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -4447,7 +4447,7 @@
         <v>42417</v>
       </c>
       <c r="B508">
-        <v>10614154.82206947</v>
+        <v>11435938.45899233</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -4455,7 +4455,7 @@
         <v>42418</v>
       </c>
       <c r="B509">
-        <v>10614154.82206947</v>
+        <v>11452121.83557088</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -4463,7 +4463,7 @@
         <v>42419</v>
       </c>
       <c r="B510">
-        <v>10614154.82206947</v>
+        <v>11387388.34031424</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -4471,7 +4471,7 @@
         <v>42422</v>
       </c>
       <c r="B511">
-        <v>10614154.82206947</v>
+        <v>11185096.16625505</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -4479,7 +4479,7 @@
         <v>42423</v>
       </c>
       <c r="B512">
-        <v>10614154.82206947</v>
+        <v>10699594.93524392</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -4487,7 +4487,7 @@
         <v>42424</v>
       </c>
       <c r="B513">
-        <v>10614154.82206947</v>
+        <v>10982803.9811383</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -4495,7 +4495,7 @@
         <v>42425</v>
       </c>
       <c r="B514">
-        <v>10614154.82206947</v>
+        <v>10926162.17417093</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -4503,7 +4503,7 @@
         <v>42426</v>
       </c>
       <c r="B515">
-        <v>10614154.82206947</v>
+        <v>10901887.10930311</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -4511,7 +4511,7 @@
         <v>42429</v>
       </c>
       <c r="B516">
-        <v>10614154.82206947</v>
+        <v>10982803.9811383</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -4519,7 +4519,7 @@
         <v>42430</v>
       </c>
       <c r="B517">
-        <v>10614154.82206947</v>
+        <v>10553944.56815209</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -4527,7 +4527,7 @@
         <v>42431</v>
       </c>
       <c r="B518">
-        <v>10614154.82206947</v>
+        <v>10375927.45896072</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -4535,7 +4535,7 @@
         <v>42432</v>
       </c>
       <c r="B519">
-        <v>10614154.82206947</v>
+        <v>10432569.26592808</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -4543,7 +4543,7 @@
         <v>42433</v>
       </c>
       <c r="B520">
-        <v>10614154.82206947</v>
+        <v>10578219.63301991</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -4551,7 +4551,7 @@
         <v>42436</v>
       </c>
       <c r="B521">
-        <v>10614154.82206947</v>
+        <v>10432569.26592808</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -4559,7 +4559,7 @@
         <v>42437</v>
       </c>
       <c r="B522">
-        <v>10614154.82206947</v>
+        <v>8781865.09818233</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -4567,7 +4567,7 @@
         <v>42438</v>
       </c>
       <c r="B523">
-        <v>10603540.6672474</v>
+        <v>9119820.115245417</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -4575,7 +4575,7 @@
         <v>42439</v>
       </c>
       <c r="B524">
-        <v>10410362.06170069</v>
+        <v>8968620.018192956</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -4583,7 +4583,7 @@
         <v>42440</v>
       </c>
       <c r="B525">
-        <v>10410362.06170069</v>
+        <v>8964533.52847972</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -4591,7 +4591,7 @@
         <v>42443</v>
       </c>
       <c r="B526">
-        <v>10410362.06170069</v>
+        <v>8737274.52752256</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -4599,7 +4599,7 @@
         <v>42444</v>
       </c>
       <c r="B527">
-        <v>10410362.06170069</v>
+        <v>8653281.334875066</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -4607,7 +4607,7 @@
         <v>42445</v>
       </c>
       <c r="B528">
-        <v>10410362.06170069</v>
+        <v>8607085.074172271</v>
       </c>
     </row>
     <row r="529" spans="1:2">
@@ -4615,7 +4615,7 @@
         <v>42446</v>
       </c>
       <c r="B529">
-        <v>10410362.06170069</v>
+        <v>8779271.126638466</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -4623,7 +4623,7 @@
         <v>42447</v>
       </c>
       <c r="B530">
-        <v>10410362.06170069</v>
+        <v>9081646.626870627</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -4631,7 +4631,7 @@
         <v>42450</v>
       </c>
       <c r="B531">
-        <v>10410362.06170069</v>
+        <v>9228634.720984142</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -4639,7 +4639,7 @@
         <v>42451</v>
       </c>
       <c r="B532">
-        <v>10410362.06170069</v>
+        <v>9379822.471100222</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -4647,7 +4647,7 @@
         <v>42452</v>
       </c>
       <c r="B533">
-        <v>10410362.06170069</v>
+        <v>9388221.788689675</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -4655,7 +4655,7 @@
         <v>42453</v>
       </c>
       <c r="B534">
-        <v>10410362.06170069</v>
+        <v>9568807.158745322</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -4663,7 +4663,7 @@
         <v>42454</v>
       </c>
       <c r="B535">
-        <v>10410362.06170069</v>
+        <v>9228634.72098414</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -4671,7 +4671,7 @@
         <v>42457</v>
       </c>
       <c r="B536">
-        <v>10410362.06170069</v>
+        <v>9535209.882803189</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -4679,7 +4679,7 @@
         <v>42458</v>
       </c>
       <c r="B537">
-        <v>10410362.06170069</v>
+        <v>9325226.892807974</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -4687,7 +4687,7 @@
         <v>42459</v>
       </c>
       <c r="B538">
-        <v>10410362.06170069</v>
+        <v>9421819.070216129</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -4695,7 +4695,7 @@
         <v>42460</v>
       </c>
       <c r="B539">
-        <v>10410362.06170069</v>
+        <v>9195037.439457687</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -4703,7 +4703,7 @@
         <v>42461</v>
       </c>
       <c r="B540">
-        <v>10410362.06170069</v>
+        <v>9325226.892807974</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -4711,7 +4711,7 @@
         <v>42465</v>
       </c>
       <c r="B541">
-        <v>10410362.06170069</v>
+        <v>9606604.096274341</v>
       </c>
     </row>
     <row r="542" spans="1:2">
@@ -4719,7 +4719,7 @@
         <v>42466</v>
       </c>
       <c r="B542">
-        <v>10410362.06170069</v>
+        <v>9552008.523566416</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -4727,7 +4727,7 @@
         <v>42467</v>
       </c>
       <c r="B543">
-        <v>10410362.06170069</v>
+        <v>9493213.28368728</v>
       </c>
     </row>
     <row r="544" spans="1:2">
@@ -4735,7 +4735,7 @@
         <v>42468</v>
       </c>
       <c r="B544">
-        <v>10410362.06170069</v>
+        <v>9526810.559629412</v>
       </c>
     </row>
     <row r="545" spans="1:2">
@@ -4743,7 +4743,7 @@
         <v>42471</v>
       </c>
       <c r="B545">
-        <v>10410362.06170069</v>
+        <v>9581406.137921661</v>
       </c>
     </row>
     <row r="546" spans="1:2">
@@ -4751,7 +4751,7 @@
         <v>42472</v>
       </c>
       <c r="B546">
-        <v>10399951.69963899</v>
+        <v>10005485.56329573</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -4759,7 +4759,7 @@
         <v>42473</v>
       </c>
       <c r="B547">
-        <v>10621312.98096308</v>
+        <v>10209213.69523523</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -4767,7 +4767,7 @@
         <v>42474</v>
       </c>
       <c r="B548">
-        <v>10638803.83189837</v>
+        <v>10226050.36197682</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -4775,7 +4775,7 @@
         <v>42475</v>
       </c>
       <c r="B549">
-        <v>10470486.46156731</v>
+        <v>10074321.06866021</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -4783,7 +4783,7 @@
         <v>42478</v>
       </c>
       <c r="B550">
-        <v>10470486.46156731</v>
+        <v>9931262.024299359</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -4791,7 +4791,7 @@
         <v>42479</v>
       </c>
       <c r="B551">
-        <v>10470486.46156731</v>
+        <v>10408125.50934518</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -4799,7 +4799,7 @@
         <v>42480</v>
       </c>
       <c r="B552">
-        <v>10460015.97510574</v>
+        <v>10858544.24296969</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -4807,7 +4807,7 @@
         <v>42481</v>
       </c>
       <c r="B553">
-        <v>10924244.51493526</v>
+        <v>11320468.72056759</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -4815,7 +4815,7 @@
         <v>42482</v>
       </c>
       <c r="B554">
-        <v>11416782.01603468</v>
+        <v>11831751.98734406</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -4823,7 +4823,7 @@
         <v>42485</v>
       </c>
       <c r="B555">
-        <v>10899096.64929031</v>
+        <v>11306084.88596272</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -4831,7 +4831,7 @@
         <v>42486</v>
       </c>
       <c r="B556">
-        <v>10899096.64929031</v>
+        <v>11301945.77310807</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -4839,7 +4839,7 @@
         <v>42487</v>
       </c>
       <c r="B557">
-        <v>10899096.64929031</v>
+        <v>11066016.44496504</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -4847,7 +4847,7 @@
         <v>42488</v>
       </c>
       <c r="B558">
-        <v>10899096.64929031</v>
+        <v>10871478.22335334</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -4855,7 +4855,7 @@
         <v>42489</v>
       </c>
       <c r="B559">
-        <v>10899096.64929031</v>
+        <v>11057738.21925573</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -4863,7 +4863,7 @@
         <v>42493</v>
       </c>
       <c r="B560">
-        <v>10899096.64929031</v>
+        <v>11045320.88619557</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -4871,7 +4871,7 @@
         <v>42494</v>
       </c>
       <c r="B561">
-        <v>10899096.64929031</v>
+        <v>10606575.11623535</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -4879,7 +4879,7 @@
         <v>42495</v>
       </c>
       <c r="B562">
-        <v>10888197.55264102</v>
+        <v>10312965.10327348</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -4887,7 +4887,7 @@
         <v>42496</v>
       </c>
       <c r="B563">
-        <v>11131391.96448033</v>
+        <v>10549801.97575288</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -4895,7 +4895,7 @@
         <v>42499</v>
       </c>
       <c r="B564">
-        <v>11012452.48238278</v>
+        <v>10447561.37021808</v>
       </c>
     </row>
     <row r="565" spans="1:2">
@@ -4903,7 +4903,7 @@
         <v>42500</v>
       </c>
       <c r="B565">
-        <v>11001440.0299004</v>
+        <v>11504439.01878835</v>
       </c>
     </row>
     <row r="566" spans="1:2">
@@ -4911,7 +4911,7 @@
         <v>42501</v>
       </c>
       <c r="B566">
-        <v>10739588.99949292</v>
+        <v>11255469.70314911</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -4919,7 +4919,7 @@
         <v>42502</v>
       </c>
       <c r="B567">
-        <v>10744437.32555332</v>
+        <v>11260564.55432939</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -4927,7 +4927,7 @@
         <v>42503</v>
       </c>
       <c r="B568">
-        <v>11192713.09656694</v>
+        <v>11730373.42812495</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -4935,7 +4935,7 @@
         <v>42506</v>
       </c>
       <c r="B569">
-        <v>11410682.98848527</v>
+        <v>11958813.87323484</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -4943,7 +4943,7 @@
         <v>42507</v>
       </c>
       <c r="B570">
-        <v>11211387.50578768</v>
+        <v>11749944.90513526</v>
       </c>
     </row>
     <row r="571" spans="1:2">
@@ -4951,7 +4951,7 @@
         <v>42508</v>
       </c>
       <c r="B571">
-        <v>10916922.02537209</v>
+        <v>11453589.46140336</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -4959,7 +4959,7 @@
         <v>42509</v>
       </c>
       <c r="B572">
-        <v>10916922.02537209</v>
+        <v>11796432.0309882</v>
       </c>
     </row>
     <row r="573" spans="1:2">
@@ -4967,7 +4967,7 @@
         <v>42510</v>
       </c>
       <c r="B573">
-        <v>10916922.02537209</v>
+        <v>11912649.85721073</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -4975,7 +4975,7 @@
         <v>42513</v>
       </c>
       <c r="B574">
-        <v>10916922.02537209</v>
+        <v>11709268.6651847</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -4983,7 +4983,7 @@
         <v>42514</v>
       </c>
       <c r="B575">
-        <v>10906005.10334672</v>
+        <v>12406168.51385333</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -4991,7 +4991,7 @@
         <v>42515</v>
       </c>
       <c r="B576">
-        <v>10793956.51054316</v>
+        <v>12297805.10280738</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -4999,7 +4999,7 @@
         <v>42516</v>
       </c>
       <c r="B577">
-        <v>10783162.55403261</v>
+        <v>12555934.21290767</v>
       </c>
     </row>
     <row r="578" spans="1:2">
@@ -5007,7 +5007,7 @@
         <v>42517</v>
       </c>
       <c r="B578">
-        <v>10519132.2527214</v>
+        <v>12267704.39928985</v>
       </c>
     </row>
     <row r="579" spans="1:2">
@@ -5015,7 +5015,7 @@
         <v>42520</v>
       </c>
       <c r="B579">
-        <v>10519132.2527214</v>
+        <v>11832157.14108747</v>
       </c>
     </row>
     <row r="580" spans="1:2">
@@ -5023,7 +5023,7 @@
         <v>42521</v>
       </c>
       <c r="B580">
-        <v>10519132.2527214</v>
+        <v>12139602.26652843</v>
       </c>
     </row>
     <row r="581" spans="1:2">
@@ -5031,7 +5031,7 @@
         <v>42522</v>
       </c>
       <c r="B581">
-        <v>10519132.2527214</v>
+        <v>12203653.3371676</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -5039,7 +5039,7 @@
         <v>42523</v>
       </c>
       <c r="B582">
-        <v>10519132.2527214</v>
+        <v>12427832.07162932</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -5047,7 +5047,7 @@
         <v>42524</v>
       </c>
       <c r="B583">
-        <v>10519132.2527214</v>
+        <v>12350970.79026908</v>
       </c>
     </row>
     <row r="584" spans="1:2">
@@ -5055,7 +5055,7 @@
         <v>42527</v>
       </c>
       <c r="B584">
-        <v>10519132.2527214</v>
+        <v>11985879.70380795</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -5063,7 +5063,7 @@
         <v>42528</v>
       </c>
       <c r="B585">
-        <v>10508613.12046868</v>
+        <v>11601981.29314781</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -5071,7 +5071,7 @@
         <v>42529</v>
       </c>
       <c r="B586">
-        <v>10564580.68309128</v>
+        <v>11665380.84548614</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -5079,7 +5079,7 @@
         <v>42534</v>
       </c>
       <c r="B587">
-        <v>10645546.89901</v>
+        <v>11754772.79649337</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -5087,7 +5087,7 @@
         <v>42535</v>
       </c>
       <c r="B588">
-        <v>11039133.24288256</v>
+        <v>12189369.74087934</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -5095,7 +5095,7 @@
         <v>42536</v>
       </c>
       <c r="B589">
-        <v>10499193.07015337</v>
+        <v>11604339.57811212</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -5103,7 +5103,7 @@
         <v>42537</v>
       </c>
       <c r="B590">
-        <v>10499193.07015337</v>
+        <v>11712678.4947421</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -5111,7 +5111,7 @@
         <v>42538</v>
       </c>
       <c r="B591">
-        <v>10499193.07015337</v>
+        <v>11642258.20217394</v>
       </c>
     </row>
     <row r="592" spans="1:2">
@@ -5119,7 +5119,7 @@
         <v>42541</v>
       </c>
       <c r="B592">
-        <v>10499193.07015337</v>
+        <v>11658509.04002859</v>
       </c>
     </row>
     <row r="593" spans="1:2">
@@ -5127,7 +5127,7 @@
         <v>42542</v>
       </c>
       <c r="B593">
-        <v>10499193.07015337</v>
+        <v>11555587.06454819</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -5135,7 +5135,7 @@
         <v>42543</v>
       </c>
       <c r="B594">
-        <v>10499193.07015337</v>
+        <v>11701844.60523999</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -5143,7 +5143,7 @@
         <v>42544</v>
       </c>
       <c r="B595">
-        <v>10488693.87708322</v>
+        <v>12070130.69013237</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -5151,7 +5151,7 @@
         <v>42545</v>
       </c>
       <c r="B596">
-        <v>10513098.3985358</v>
+        <v>12097028.57100385</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -5159,7 +5159,7 @@
         <v>42548</v>
       </c>
       <c r="B597">
-        <v>10366339.50137953</v>
+        <v>11940055.20256982</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -5167,7 +5167,7 @@
         <v>42549</v>
       </c>
       <c r="B598">
-        <v>10355973.16187815</v>
+        <v>12740965.8246797</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -5175,7 +5175,7 @@
         <v>42550</v>
       </c>
       <c r="B599">
-        <v>10337682.46389982</v>
+        <v>12719085.56216181</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -5183,7 +5183,7 @@
         <v>42551</v>
       </c>
       <c r="B600">
-        <v>10203946.7752901</v>
+        <v>12567139.40860665</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -5191,7 +5191,7 @@
         <v>42552</v>
       </c>
       <c r="B601">
-        <v>10193742.82851481</v>
+        <v>13151806.30341314</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -5199,7 +5199,7 @@
         <v>42555</v>
       </c>
       <c r="B602">
-        <v>10228568.14404402</v>
+        <v>13194210.81329351</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -5207,7 +5207,7 @@
         <v>42556</v>
       </c>
       <c r="B603">
-        <v>10579759.83179907</v>
+        <v>13647310.26609383</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -5215,7 +5215,7 @@
         <v>42557</v>
       </c>
       <c r="B604">
-        <v>10423509.26554578</v>
+        <v>13445756.75994568</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -5223,7 +5223,7 @@
         <v>42558</v>
       </c>
       <c r="B605">
-        <v>10311345.24526282</v>
+        <v>13314587.4628868</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -5231,7 +5231,7 @@
         <v>42559</v>
       </c>
       <c r="B606">
-        <v>10311345.24526282</v>
+        <v>13411538.68179264</v>
       </c>
     </row>
     <row r="607" spans="1:2">
@@ -5239,7 +5239,7 @@
         <v>42562</v>
       </c>
       <c r="B607">
-        <v>10301033.90001755</v>
+        <v>13850030.00429807</v>
       </c>
     </row>
     <row r="608" spans="1:2">
@@ -5247,7 +5247,7 @@
         <v>42563</v>
       </c>
       <c r="B608">
-        <v>10169484.73412188</v>
+        <v>13692183.15735716</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -5255,7 +5255,7 @@
         <v>42564</v>
       </c>
       <c r="B609">
-        <v>10159315.24938776</v>
+        <v>14263564.56983216</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -5263,7 +5263,7 @@
         <v>42565</v>
       </c>
       <c r="B610">
-        <v>10081150.34988948</v>
+        <v>14171923.97694206</v>
       </c>
     </row>
     <row r="611" spans="1:2">
@@ -5271,7 +5271,7 @@
         <v>42566</v>
       </c>
       <c r="B611">
-        <v>10081150.34988948</v>
+        <v>14128798.98614958</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -5279,7 +5279,7 @@
         <v>42569</v>
       </c>
       <c r="B612">
-        <v>10081150.34988948</v>
+        <v>14198877.09081139</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -5287,7 +5287,7 @@
         <v>42570</v>
       </c>
       <c r="B613">
-        <v>10071069.19953959</v>
+        <v>13234020.23352618</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -5295,7 +5295,7 @@
         <v>42571</v>
       </c>
       <c r="B614">
-        <v>10284993.24216053</v>
+        <v>13534947.39277333</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -5303,7 +5303,7 @@
         <v>42572</v>
       </c>
       <c r="B615">
-        <v>10262945.55109442</v>
+        <v>13505955.51842289</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -5311,7 +5311,7 @@
         <v>42573</v>
       </c>
       <c r="B616">
-        <v>9891500.951535841</v>
+        <v>13031147.92603767</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -5319,7 +5319,7 @@
         <v>42576</v>
       </c>
       <c r="B617">
-        <v>9891500.951535841</v>
+        <v>13494231.87676463</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -5327,7 +5327,7 @@
         <v>42577</v>
       </c>
       <c r="B618">
-        <v>9891500.951535841</v>
+        <v>13265620.81376434</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -5335,7 +5335,7 @@
         <v>42578</v>
       </c>
       <c r="B619">
-        <v>9891500.951535841</v>
+        <v>13107351.60850809</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -5343,7 +5343,7 @@
         <v>42579</v>
       </c>
       <c r="B620">
-        <v>9891500.951535841</v>
+        <v>12849431.43746491</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -5351,7 +5351,7 @@
         <v>42580</v>
       </c>
       <c r="B621">
-        <v>9881609.450584305</v>
+        <v>12505535.60123531</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -5359,7 +5359,7 @@
         <v>42583</v>
       </c>
       <c r="B622">
-        <v>9652126.62827272</v>
+        <v>12219992.68009594</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -5367,7 +5367,7 @@
         <v>42584</v>
       </c>
       <c r="B623">
-        <v>9652126.62827272</v>
+        <v>12635327.83937201</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -5375,7 +5375,7 @@
         <v>42585</v>
       </c>
       <c r="B624">
-        <v>9652126.62827272</v>
+        <v>12723586.56434248</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -5383,7 +5383,7 @@
         <v>42586</v>
       </c>
       <c r="B625">
-        <v>9652126.62827272</v>
+        <v>12609369.39450604</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -5391,7 +5391,7 @@
         <v>42587</v>
       </c>
       <c r="B626">
-        <v>9652126.62827272</v>
+        <v>12432851.95146854</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -5399,7 +5399,7 @@
         <v>42590</v>
       </c>
       <c r="B627">
-        <v>9652126.62827272</v>
+        <v>12832612.04244435</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -5407,7 +5407,7 @@
         <v>42591</v>
       </c>
       <c r="B628">
-        <v>9642474.501644447</v>
+        <v>13190136.49094335</v>
       </c>
     </row>
     <row r="629" spans="1:2">
@@ -5415,7 +5415,7 @@
         <v>42592</v>
       </c>
       <c r="B629">
-        <v>9532957.85269729</v>
+        <v>13057232.56970366</v>
       </c>
     </row>
     <row r="630" spans="1:2">
@@ -5423,7 +5423,7 @@
         <v>42593</v>
       </c>
       <c r="B630">
-        <v>9532957.85269729</v>
+        <v>13091689.14405869</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -5431,7 +5431,7 @@
         <v>42594</v>
       </c>
       <c r="B631">
-        <v>9532957.85269729</v>
+        <v>13057232.56970366</v>
       </c>
     </row>
     <row r="632" spans="1:2">
@@ -5439,7 +5439,7 @@
         <v>42597</v>
       </c>
       <c r="B632">
-        <v>9532957.85269729</v>
+        <v>12963707.58590878</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -5447,7 +5447,7 @@
         <v>42598</v>
       </c>
       <c r="B633">
-        <v>9532957.85269729</v>
+        <v>13012931.26262377</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -5455,7 +5455,7 @@
         <v>42599</v>
       </c>
       <c r="B634">
-        <v>9523424.894844593</v>
+        <v>13352556.73580875</v>
       </c>
     </row>
     <row r="635" spans="1:2">
@@ -5463,7 +5463,7 @@
         <v>42600</v>
       </c>
       <c r="B635">
-        <v>9213818.915201439</v>
+        <v>12942533.06791162</v>
       </c>
     </row>
     <row r="636" spans="1:2">
@@ -5471,7 +5471,7 @@
         <v>42601</v>
       </c>
       <c r="B636">
-        <v>9213818.915201439</v>
+        <v>12972409.58056484</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -5479,7 +5479,7 @@
         <v>42604</v>
       </c>
       <c r="B637">
-        <v>9213818.915201439</v>
+        <v>13106853.86784138</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -5487,7 +5487,7 @@
         <v>42605</v>
       </c>
       <c r="B638">
-        <v>9213818.915201439</v>
+        <v>13032162.59931697</v>
       </c>
     </row>
     <row r="639" spans="1:2">
@@ -5495,7 +5495,7 @@
         <v>42606</v>
       </c>
       <c r="B639">
-        <v>9213818.915201439</v>
+        <v>13281133.50969176</v>
       </c>
     </row>
     <row r="640" spans="1:2">
@@ -5503,7 +5503,7 @@
         <v>42607</v>
       </c>
       <c r="B640">
-        <v>9213818.915201439</v>
+        <v>13286112.93065207</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -5511,7 +5511,7 @@
         <v>42608</v>
       </c>
       <c r="B641">
-        <v>9213818.915201439</v>
+        <v>13111833.28880169</v>
       </c>
     </row>
     <row r="642" spans="1:2">
@@ -5519,7 +5519,7 @@
         <v>42611</v>
       </c>
       <c r="B642">
-        <v>9204605.096286237</v>
+        <v>12722815.2117577</v>
       </c>
     </row>
     <row r="643" spans="1:2">
@@ -5527,7 +5527,7 @@
         <v>42612</v>
       </c>
       <c r="B643">
-        <v>9230469.941879127</v>
+        <v>12759294.01631731</v>
       </c>
     </row>
     <row r="644" spans="1:2">
@@ -5535,7 +5535,7 @@
         <v>42613</v>
       </c>
       <c r="B644">
-        <v>9433964.006108809</v>
+        <v>13040567.42777404</v>
       </c>
     </row>
     <row r="645" spans="1:2">
@@ -5543,7 +5543,7 @@
         <v>42614</v>
       </c>
       <c r="B645">
-        <v>9608318.954752006</v>
+        <v>13281578.58124428</v>
       </c>
     </row>
     <row r="646" spans="1:2">
@@ -5551,7 +5551,7 @@
         <v>42615</v>
       </c>
       <c r="B646">
-        <v>9544892.722351721</v>
+        <v>13193904.50671391</v>
       </c>
     </row>
     <row r="647" spans="1:2">
@@ -5559,7 +5559,7 @@
         <v>42618</v>
       </c>
       <c r="B647">
-        <v>9475172.356881306</v>
+        <v>13110894.63912427</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -5567,7 +5567,7 @@
         <v>42619</v>
       </c>
       <c r="B648">
-        <v>9475172.356881306</v>
+        <v>12994680.82886936</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -5575,7 +5575,7 @@
         <v>42620</v>
       </c>
       <c r="B649">
-        <v>9475172.356881306</v>
+        <v>13061088.72148421</v>
       </c>
     </row>
     <row r="650" spans="1:2">
@@ -5583,7 +5583,7 @@
         <v>42621</v>
       </c>
       <c r="B650">
-        <v>9465697.184524424</v>
+        <v>13559003.16618447</v>
       </c>
     </row>
     <row r="651" spans="1:2">
@@ -5591,7 +5591,7 @@
         <v>42622</v>
       </c>
       <c r="B651">
-        <v>9461624.019253101</v>
+        <v>13552914.83411604</v>
       </c>
     </row>
     <row r="652" spans="1:2">
@@ -5599,7 +5599,7 @@
         <v>42625</v>
       </c>
       <c r="B652">
-        <v>9419695.235613452</v>
+        <v>13506460.00294065</v>
       </c>
     </row>
     <row r="653" spans="1:2">
@@ -5607,7 +5607,7 @@
         <v>42626</v>
       </c>
       <c r="B653">
-        <v>9410275.540377839</v>
+        <v>13895229.13850075</v>
       </c>
     </row>
     <row r="654" spans="1:2">
@@ -5615,7 +5615,7 @@
         <v>42627</v>
       </c>
       <c r="B654">
-        <v>9517783.712686315</v>
+        <v>14048977.79804202</v>
       </c>
     </row>
     <row r="655" spans="1:2">
@@ -5623,7 +5623,7 @@
         <v>42632</v>
       </c>
       <c r="B655">
-        <v>9726584.31967718</v>
+        <v>14357298.13355026</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -5631,7 +5631,7 @@
         <v>42633</v>
       </c>
       <c r="B656">
-        <v>9566463.772264238</v>
+        <v>14120947.82609454</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -5639,7 +5639,7 @@
         <v>42634</v>
       </c>
       <c r="B657">
-        <v>9439222.488102915</v>
+        <v>13947659.03146406</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -5647,7 +5647,7 @@
         <v>42635</v>
       </c>
       <c r="B658">
-        <v>9439222.488102915</v>
+        <v>14011840.06181904</v>
       </c>
     </row>
     <row r="659" spans="1:2">
@@ -5655,7 +5655,7 @@
         <v>42636</v>
       </c>
       <c r="B659">
-        <v>9439222.488102915</v>
+        <v>13812878.84659853</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -5663,7 +5663,7 @@
         <v>42639</v>
       </c>
       <c r="B660">
-        <v>9439222.488102915</v>
+        <v>13646008.15077953</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -5671,7 +5671,7 @@
         <v>42640</v>
       </c>
       <c r="B661">
-        <v>9429783.265614811</v>
+        <v>13566133.72725514</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -5679,7 +5679,7 @@
         <v>42641</v>
       </c>
       <c r="B662">
-        <v>9212962.004576735</v>
+        <v>13266027.4672632</v>
       </c>
     </row>
     <row r="663" spans="1:2">
@@ -5687,7 +5687,7 @@
         <v>42642</v>
       </c>
       <c r="B663">
-        <v>9212962.004576735</v>
+        <v>13389600.6304085</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -5695,7 +5695,7 @@
         <v>42643</v>
       </c>
       <c r="B664">
-        <v>9212962.004576735</v>
+        <v>13277796.3388372</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -5703,7 +5703,7 @@
         <v>42653</v>
       </c>
       <c r="B665">
-        <v>9212962.004576735</v>
+        <v>13101263.24199056</v>
       </c>
     </row>
     <row r="666" spans="1:2">
@@ -5711,7 +5711,7 @@
         <v>42654</v>
       </c>
       <c r="B666">
-        <v>9212962.004576735</v>
+        <v>13295449.65007098</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -5719,7 +5719,7 @@
         <v>42655</v>
       </c>
       <c r="B667">
-        <v>9203749.042572159</v>
+        <v>13689232.75873659</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -5727,7 +5727,7 @@
         <v>42656</v>
       </c>
       <c r="B668">
-        <v>9294204.027036969</v>
+        <v>13819651.4237548</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -5735,7 +5735,7 @@
         <v>42657</v>
       </c>
       <c r="B669">
-        <v>9255125.202428609</v>
+        <v>13761531.4984011</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -5743,7 +5743,7 @@
         <v>42660</v>
       </c>
       <c r="B670">
-        <v>9405033.666985311</v>
+        <v>13984431.98529672</v>
       </c>
     </row>
     <row r="671" spans="1:2">
@@ -5751,7 +5751,7 @@
         <v>42661</v>
       </c>
       <c r="B671">
-        <v>9555994.505778877</v>
+        <v>14208897.0567573</v>
       </c>
     </row>
     <row r="672" spans="1:2">
@@ -5759,7 +5759,7 @@
         <v>42662</v>
       </c>
       <c r="B672">
-        <v>9637202.890086338</v>
+        <v>14329646.55827142</v>
       </c>
     </row>
     <row r="673" spans="1:2">
@@ -5767,7 +5767,7 @@
         <v>42663</v>
       </c>
       <c r="B673">
-        <v>9586386.405815054</v>
+        <v>14254087.05545246</v>
       </c>
     </row>
     <row r="674" spans="1:2">
@@ -5775,7 +5775,7 @@
         <v>42664</v>
       </c>
       <c r="B674">
-        <v>9799579.457766453</v>
+        <v>14571085.78609923</v>
       </c>
     </row>
     <row r="675" spans="1:2">
@@ -5783,7 +5783,7 @@
         <v>42667</v>
       </c>
       <c r="B675">
-        <v>9753157.728197733</v>
+        <v>14502060.88489811</v>
       </c>
     </row>
     <row r="676" spans="1:2">
@@ -5791,7 +5791,7 @@
         <v>42668</v>
       </c>
       <c r="B676">
-        <v>9804428.702929584</v>
+        <v>14578296.17380764</v>
       </c>
     </row>
     <row r="677" spans="1:2">
@@ -5799,7 +5799,7 @@
         <v>42669</v>
       </c>
       <c r="B677">
-        <v>10113236.07356025</v>
+        <v>15037464.72366547</v>
       </c>
     </row>
     <row r="678" spans="1:2">
@@ -5807,7 +5807,7 @@
         <v>42670</v>
       </c>
       <c r="B678">
-        <v>9962529.194658697</v>
+        <v>14827745.84184823</v>
       </c>
     </row>
     <row r="679" spans="1:2">
@@ -5815,7 +5815,7 @@
         <v>42671</v>
       </c>
       <c r="B679">
-        <v>9962529.194658697</v>
+        <v>14742724.68039981</v>
       </c>
     </row>
     <row r="680" spans="1:2">
@@ -5823,7 +5823,7 @@
         <v>42674</v>
       </c>
       <c r="B680">
-        <v>9962529.194658697</v>
+        <v>15167830.51748509</v>
       </c>
     </row>
     <row r="681" spans="1:2">
@@ -5831,7 +5831,7 @@
         <v>42675</v>
       </c>
       <c r="B681">
-        <v>9952566.665464038</v>
+        <v>15195740.07896128</v>
       </c>
     </row>
     <row r="682" spans="1:2">
@@ -5839,7 +5839,7 @@
         <v>42676</v>
       </c>
       <c r="B682">
-        <v>10025286.9970343</v>
+        <v>15306498.98391887</v>
       </c>
     </row>
     <row r="683" spans="1:2">
@@ -5847,7 +5847,7 @@
         <v>42677</v>
       </c>
       <c r="B683">
-        <v>10000149.06765973</v>
+        <v>15283290.51756994</v>
       </c>
     </row>
     <row r="684" spans="1:2">
@@ -5855,7 +5855,7 @@
         <v>42678</v>
       </c>
       <c r="B684">
-        <v>9990148.918592071</v>
+        <v>15747106.33494199</v>
       </c>
     </row>
     <row r="685" spans="1:2">
@@ -5863,7 +5863,7 @@
         <v>42681</v>
       </c>
       <c r="B685">
-        <v>10142122.63086389</v>
+        <v>15979385.20004411</v>
       </c>
     </row>
     <row r="686" spans="1:2">
@@ -5871,7 +5871,7 @@
         <v>42682</v>
       </c>
       <c r="B686">
-        <v>10693080.15272584</v>
+        <v>16847832.11787692</v>
       </c>
     </row>
     <row r="687" spans="1:2">
@@ -5879,7 +5879,7 @@
         <v>42683</v>
       </c>
       <c r="B687">
-        <v>10472366.90860368</v>
+        <v>16515735.44047209</v>
       </c>
     </row>
     <row r="688" spans="1:2">
@@ -5887,7 +5887,7 @@
         <v>42684</v>
       </c>
       <c r="B688">
-        <v>10461894.54169508</v>
+        <v>17528485.86042814</v>
       </c>
     </row>
     <row r="689" spans="1:2">
@@ -5895,7 +5895,7 @@
         <v>42685</v>
       </c>
       <c r="B689">
-        <v>10427078.30489628</v>
+        <v>17472548.6865361</v>
       </c>
     </row>
     <row r="690" spans="1:2">
@@ -5903,7 +5903,7 @@
         <v>42688</v>
       </c>
       <c r="B690">
-        <v>10939163.68726943</v>
+        <v>18330529.65887208</v>
       </c>
     </row>
     <row r="691" spans="1:2">
@@ -5911,7 +5911,7 @@
         <v>42689</v>
       </c>
       <c r="B691">
-        <v>10276661.52666921</v>
+        <v>17236760.32985805</v>
       </c>
     </row>
     <row r="692" spans="1:2">
@@ -5919,7 +5919,7 @@
         <v>42690</v>
       </c>
       <c r="B692">
-        <v>10276661.52666921</v>
+        <v>16409493.16492387</v>
       </c>
     </row>
     <row r="693" spans="1:2">
@@ -5927,7 +5927,7 @@
         <v>42691</v>
       </c>
       <c r="B693">
-        <v>10276661.52666921</v>
+        <v>16509431.48284846</v>
       </c>
     </row>
     <row r="694" spans="1:2">
@@ -5935,7 +5935,7 @@
         <v>42692</v>
       </c>
       <c r="B694">
-        <v>10276661.52666921</v>
+        <v>16537192.1263104</v>
       </c>
     </row>
     <row r="695" spans="1:2">
@@ -5943,7 +5943,7 @@
         <v>42695</v>
       </c>
       <c r="B695">
-        <v>10276661.52666921</v>
+        <v>16309554.85430744</v>
       </c>
     </row>
     <row r="696" spans="1:2">
@@ -5951,7 +5951,7 @@
         <v>42696</v>
       </c>
       <c r="B696">
-        <v>10266384.86514254</v>
+        <v>15961638.86290076</v>
       </c>
     </row>
     <row r="697" spans="1:2">
@@ -5959,7 +5959,7 @@
         <v>42697</v>
       </c>
       <c r="B697">
-        <v>9610816.039417699</v>
+        <v>14938552.32767481</v>
       </c>
     </row>
     <row r="698" spans="1:2">
@@ -5967,7 +5967,7 @@
         <v>42698</v>
       </c>
       <c r="B698">
-        <v>9610816.039417699</v>
+        <v>14621455.33377152</v>
       </c>
     </row>
     <row r="699" spans="1:2">
@@ -5975,7 +5975,7 @@
         <v>42699</v>
       </c>
       <c r="B699">
-        <v>9610816.039417699</v>
+        <v>14908637.51633486</v>
       </c>
     </row>
     <row r="700" spans="1:2">
@@ -5983,7 +5983,7 @@
         <v>42702</v>
       </c>
       <c r="B700">
-        <v>9601205.223378282</v>
+        <v>13361163.20931818</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -5991,7 +5991,7 @@
         <v>42703</v>
       </c>
       <c r="B701">
-        <v>9820860.500032227</v>
+        <v>13700367.67209172</v>
       </c>
     </row>
     <row r="702" spans="1:2">
@@ -5999,7 +5999,7 @@
         <v>42704</v>
       </c>
       <c r="B702">
-        <v>9103349.01555912</v>
+        <v>12714244.31246317</v>
       </c>
     </row>
     <row r="703" spans="1:2">
@@ -6007,7 +6007,7 @@
         <v>42705</v>
       </c>
       <c r="B703">
-        <v>9103349.01555912</v>
+        <v>12463671.98060772</v>
       </c>
     </row>
     <row r="704" spans="1:2">
@@ -6015,7 +6015,7 @@
         <v>42706</v>
       </c>
       <c r="B704">
-        <v>9103349.01555912</v>
+        <v>13255803.86295914</v>
       </c>
     </row>
     <row r="705" spans="1:2">
@@ -6023,7 +6023,7 @@
         <v>42709</v>
       </c>
       <c r="B705">
-        <v>9103349.01555912</v>
+        <v>12964816.63886895</v>
       </c>
     </row>
     <row r="706" spans="1:2">
@@ -6031,7 +6031,7 @@
         <v>42710</v>
       </c>
       <c r="B706">
-        <v>9103349.01555912</v>
+        <v>13276011.30635169</v>
       </c>
     </row>
     <row r="707" spans="1:2">
@@ -6039,7 +6039,7 @@
         <v>42711</v>
       </c>
       <c r="B707">
-        <v>9103349.01555912</v>
+        <v>13364924.06926814</v>
       </c>
     </row>
     <row r="708" spans="1:2">
@@ -6047,7 +6047,7 @@
         <v>42712</v>
       </c>
       <c r="B708">
-        <v>9094245.66654356</v>
+        <v>14043554.48219672</v>
       </c>
     </row>
     <row r="709" spans="1:2">
@@ -6055,7 +6055,7 @@
         <v>42713</v>
       </c>
       <c r="B709">
-        <v>9123737.214836098</v>
+        <v>14086273.43060712</v>
       </c>
     </row>
     <row r="710" spans="1:2">
@@ -6063,7 +6063,7 @@
         <v>42716</v>
       </c>
       <c r="B710">
-        <v>9023844.864494277</v>
+        <v>13945920.44463956</v>
       </c>
     </row>
     <row r="711" spans="1:2">
@@ -6071,7 +6071,7 @@
         <v>42717</v>
       </c>
       <c r="B711">
-        <v>9023844.864494277</v>
+        <v>14309186.99098923</v>
       </c>
     </row>
     <row r="712" spans="1:2">
@@ -6079,7 +6079,7 @@
         <v>42718</v>
       </c>
       <c r="B712">
-        <v>9014821.019629782</v>
+        <v>14445318.43916879</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -6087,7 +6087,7 @@
         <v>42719</v>
       </c>
       <c r="B713">
-        <v>8693159.359103939</v>
+        <v>13949069.76656493</v>
       </c>
     </row>
     <row r="714" spans="1:2">
@@ -6095,7 +6095,7 @@
         <v>42720</v>
       </c>
       <c r="B714">
-        <v>8693159.359103939</v>
+        <v>13998284.51177807</v>
       </c>
     </row>
     <row r="715" spans="1:2">
@@ -6103,7 +6103,7 @@
         <v>42723</v>
       </c>
       <c r="B715">
-        <v>8693159.359103939</v>
+        <v>13588161.64053209</v>
       </c>
     </row>
     <row r="716" spans="1:2">
@@ -6111,7 +6111,7 @@
         <v>42724</v>
       </c>
       <c r="B716">
-        <v>8684466.199744835</v>
+        <v>13073563.27432125</v>
       </c>
     </row>
     <row r="717" spans="1:2">
@@ -6119,7 +6119,7 @@
         <v>42725</v>
       </c>
       <c r="B717">
-        <v>8665187.347059155</v>
+        <v>13042927.74619108</v>
       </c>
     </row>
     <row r="718" spans="1:2">
@@ -6127,7 +6127,7 @@
         <v>42726</v>
       </c>
       <c r="B718">
-        <v>8642782.632120397</v>
+        <v>13022293.96829837</v>
       </c>
     </row>
     <row r="719" spans="1:2">
@@ -6135,7 +6135,7 @@
         <v>42727</v>
       </c>
       <c r="B719">
-        <v>8634139.849488277</v>
+        <v>13686109.19304175</v>
       </c>
     </row>
     <row r="720" spans="1:2">
@@ -6143,7 +6143,7 @@
         <v>42730</v>
       </c>
       <c r="B720">
-        <v>8751678.283919387</v>
+        <v>13862530.41651637</v>
       </c>
     </row>
     <row r="721" spans="1:2">
@@ -6151,7 +6151,7 @@
         <v>42731</v>
       </c>
       <c r="B721">
-        <v>8864786.838066274</v>
+        <v>14041830.43343065</v>
       </c>
     </row>
     <row r="722" spans="1:2">
@@ -6159,7 +6159,7 @@
         <v>42732</v>
       </c>
       <c r="B722">
-        <v>8622981.430681413</v>
+        <v>13673045.51964409</v>
       </c>
     </row>
     <row r="723" spans="1:2">
@@ -6167,7 +6167,7 @@
         <v>42733</v>
       </c>
       <c r="B723">
-        <v>8622981.430681413</v>
+        <v>13758149.73198915</v>
       </c>
     </row>
     <row r="724" spans="1:2">
@@ -6175,7 +6175,7 @@
         <v>42734</v>
       </c>
       <c r="B724">
-        <v>8622981.430681413</v>
+        <v>13966182.24467948</v>
       </c>
     </row>
     <row r="725" spans="1:2">
@@ -6183,7 +6183,7 @@
         <v>42738</v>
       </c>
       <c r="B725">
-        <v>8622981.430681413</v>
+        <v>14245134.93751172</v>
       </c>
     </row>
     <row r="726" spans="1:2">
@@ -6191,7 +6191,7 @@
         <v>42739</v>
       </c>
       <c r="B726">
-        <v>8622981.430681413</v>
+        <v>14382247.27643553</v>
       </c>
     </row>
     <row r="727" spans="1:2">
@@ -6199,7 +6199,7 @@
         <v>42740</v>
       </c>
       <c r="B727">
-        <v>8622981.430681413</v>
+        <v>14051286.45702455</v>
       </c>
     </row>
     <row r="728" spans="1:2">
@@ -6207,7 +6207,7 @@
         <v>42741</v>
       </c>
       <c r="B728">
-        <v>8622981.430681413</v>
+        <v>14004006.33905507</v>
       </c>
     </row>
     <row r="729" spans="1:2">
@@ -6215,7 +6215,7 @@
         <v>42744</v>
       </c>
       <c r="B729">
-        <v>8622981.430681413</v>
+        <v>14122206.63079107</v>
       </c>
     </row>
     <row r="730" spans="1:2">
@@ -6223,7 +6223,7 @@
         <v>42745</v>
       </c>
       <c r="B730">
-        <v>8622981.430681413</v>
+        <v>13493381.07136006</v>
       </c>
     </row>
     <row r="731" spans="1:2">
@@ -6231,7 +6231,7 @@
         <v>42746</v>
       </c>
       <c r="B731">
-        <v>8622981.430681413</v>
+        <v>12883467.55911683</v>
       </c>
     </row>
     <row r="732" spans="1:2">
@@ -6239,7 +6239,7 @@
         <v>42747</v>
       </c>
       <c r="B732">
-        <v>8622981.430681413</v>
+        <v>12874011.53552294</v>
       </c>
     </row>
     <row r="733" spans="1:2">
@@ -6247,7 +6247,7 @@
         <v>42748</v>
       </c>
       <c r="B733">
-        <v>8622981.430681413</v>
+        <v>12717987.14941134</v>
       </c>
     </row>
     <row r="734" spans="1:2">
@@ -6255,7 +6255,7 @@
         <v>42751</v>
       </c>
       <c r="B734">
-        <v>8622981.430681413</v>
+        <v>12822003.40256882</v>
       </c>
     </row>
     <row r="735" spans="1:2">
@@ -6263,7 +6263,7 @@
         <v>42752</v>
       </c>
       <c r="B735">
-        <v>8622981.430681413</v>
+        <v>11970961.29186893</v>
       </c>
     </row>
     <row r="736" spans="1:2">
@@ -6271,7 +6271,7 @@
         <v>42753</v>
       </c>
       <c r="B736">
-        <v>8622981.430681413</v>
+        <v>12339746.20565549</v>
       </c>
     </row>
     <row r="737" spans="1:2">
@@ -6279,7 +6279,7 @@
         <v>42754</v>
       </c>
       <c r="B737">
-        <v>8622981.430681413</v>
+        <v>12396482.34721887</v>
       </c>
     </row>
     <row r="738" spans="1:2">
@@ -6287,7 +6287,7 @@
         <v>42755</v>
       </c>
       <c r="B738">
-        <v>8622981.430681413</v>
+        <v>12528866.67753342</v>
       </c>
     </row>
     <row r="739" spans="1:2">
@@ -6295,7 +6295,7 @@
         <v>42758</v>
       </c>
       <c r="B739">
-        <v>8622981.430681413</v>
+        <v>12817275.39395956</v>
       </c>
     </row>
     <row r="740" spans="1:2">
@@ -6303,7 +6303,7 @@
         <v>42759</v>
       </c>
       <c r="B740">
-        <v>8622981.430681413</v>
+        <v>12878739.54413219</v>
       </c>
     </row>
     <row r="741" spans="1:2">
@@ -6311,7 +6311,7 @@
         <v>42760</v>
       </c>
       <c r="B741">
-        <v>8622981.430681413</v>
+        <v>12301922.11127991</v>
       </c>
     </row>
     <row r="742" spans="1:2">
@@ -6319,7 +6319,7 @@
         <v>42761</v>
       </c>
       <c r="B742">
-        <v>8622981.430681413</v>
+        <v>12339746.20565549</v>
       </c>
     </row>
     <row r="743" spans="1:2">
@@ -6327,7 +6327,7 @@
         <v>42769</v>
       </c>
       <c r="B743">
-        <v>8622981.430681413</v>
+        <v>12070249.53641715</v>
       </c>
     </row>
     <row r="744" spans="1:2">
@@ -6335,7 +6335,7 @@
         <v>42772</v>
       </c>
       <c r="B744">
-        <v>8622981.430681413</v>
+        <v>13200244.34632467</v>
       </c>
     </row>
     <row r="745" spans="1:2">
@@ -6343,7 +6343,7 @@
         <v>42773</v>
       </c>
       <c r="B745">
-        <v>8622981.430681413</v>
+        <v>13294804.58226363</v>
       </c>
     </row>
     <row r="746" spans="1:2">
@@ -6351,7 +6351,7 @@
         <v>42774</v>
       </c>
       <c r="B746">
-        <v>8622981.430681413</v>
+        <v>12959115.74786801</v>
       </c>
     </row>
     <row r="747" spans="1:2">
@@ -6359,7 +6359,7 @@
         <v>42775</v>
       </c>
       <c r="B747">
-        <v>8622981.430681413</v>
+        <v>12547778.72472122</v>
       </c>
     </row>
     <row r="748" spans="1:2">
@@ -6367,7 +6367,7 @@
         <v>42776</v>
       </c>
       <c r="B748">
-        <v>8622981.430681413</v>
+        <v>12784179.31456862</v>
       </c>
     </row>
     <row r="749" spans="1:2">
@@ -6375,7 +6375,7 @@
         <v>42779</v>
       </c>
       <c r="B749">
-        <v>8622981.430681413</v>
+        <v>12060793.51282325</v>
       </c>
     </row>
     <row r="750" spans="1:2">
@@ -6383,7 +6383,7 @@
         <v>42780</v>
       </c>
       <c r="B750">
-        <v>8622981.430681413</v>
+        <v>11597448.36309773</v>
       </c>
     </row>
     <row r="751" spans="1:2">
@@ -6391,7 +6391,7 @@
         <v>42781</v>
       </c>
       <c r="B751">
-        <v>8622981.430681413</v>
+        <v>11630544.44886406</v>
       </c>
     </row>
     <row r="752" spans="1:2">
@@ -6399,7 +6399,7 @@
         <v>42782</v>
       </c>
       <c r="B752">
-        <v>8622981.430681413</v>
+        <v>11970961.29186894</v>
       </c>
     </row>
     <row r="753" spans="1:2">
@@ -6407,7 +6407,7 @@
         <v>42783</v>
       </c>
       <c r="B753">
-        <v>8622981.430681413</v>
+        <v>11857489.00874218</v>
       </c>
     </row>
     <row r="754" spans="1:2">
@@ -6415,7 +6415,7 @@
         <v>42786</v>
       </c>
       <c r="B754">
-        <v>8622981.430681413</v>
+        <v>11446151.99197078</v>
       </c>
     </row>
     <row r="755" spans="1:2">
@@ -6423,7 +6423,7 @@
         <v>42787</v>
       </c>
       <c r="B755">
-        <v>8622981.430681413</v>
+        <v>11044270.99241788</v>
       </c>
     </row>
     <row r="756" spans="1:2">
@@ -6431,7 +6431,7 @@
         <v>42788</v>
       </c>
       <c r="B756">
-        <v>8622981.430681413</v>
+        <v>11015902.92163619</v>
       </c>
     </row>
     <row r="757" spans="1:2">
@@ -6439,7 +6439,7 @@
         <v>42789</v>
       </c>
       <c r="B757">
-        <v>8622981.430681413</v>
+        <v>11327951.69385938</v>
       </c>
     </row>
     <row r="758" spans="1:2">
@@ -6447,7 +6447,7 @@
         <v>42790</v>
       </c>
       <c r="B758">
-        <v>8622981.430681413</v>
+        <v>11299583.62307769</v>
       </c>
     </row>
     <row r="759" spans="1:2">
@@ -6455,7 +6455,7 @@
         <v>42793</v>
       </c>
       <c r="B759">
-        <v>8622981.430681413</v>
+        <v>11365775.78823496</v>
       </c>
     </row>
     <row r="760" spans="1:2">
@@ -6463,7 +6463,7 @@
         <v>42794</v>
       </c>
       <c r="B760">
-        <v>8622981.430681413</v>
+        <v>10836238.47335216</v>
       </c>
     </row>
     <row r="761" spans="1:2">
@@ -6471,7 +6471,7 @@
         <v>42795</v>
       </c>
       <c r="B761">
-        <v>8622981.430681413</v>
+        <v>11413055.90620444</v>
       </c>
     </row>
     <row r="762" spans="1:2">
@@ -6479,7 +6479,7 @@
         <v>42796</v>
       </c>
       <c r="B762">
-        <v>8622981.430681413</v>
+        <v>11143559.2369661</v>
       </c>
     </row>
     <row r="763" spans="1:2">
@@ -6487,7 +6487,7 @@
         <v>42797</v>
       </c>
       <c r="B763">
-        <v>8622981.430681413</v>
+        <v>11096279.11899661</v>
       </c>
     </row>
     <row r="764" spans="1:2">
@@ -6495,7 +6495,7 @@
         <v>42800</v>
       </c>
       <c r="B764">
-        <v>8622981.430681413</v>
+        <v>11030086.95383934</v>
       </c>
     </row>
     <row r="765" spans="1:2">
@@ -6503,7 +6503,7 @@
         <v>42801</v>
       </c>
       <c r="B765">
-        <v>8622981.430681413</v>
+        <v>11616360.41028552</v>
       </c>
     </row>
     <row r="766" spans="1:2">
@@ -6511,7 +6511,7 @@
         <v>42802</v>
       </c>
       <c r="B766">
-        <v>8622981.430681413</v>
+        <v>11394143.85901666</v>
       </c>
     </row>
     <row r="767" spans="1:2">
@@ -6519,7 +6519,7 @@
         <v>42803</v>
       </c>
       <c r="B767">
-        <v>8622981.430681413</v>
+        <v>11748744.74060007</v>
       </c>
     </row>
     <row r="768" spans="1:2">
@@ -6527,7 +6527,7 @@
         <v>42804</v>
       </c>
       <c r="B768">
-        <v>8622981.430681413</v>
+        <v>11900041.11810241</v>
       </c>
     </row>
     <row r="769" spans="1:2">
@@ -6535,7 +6535,7 @@
         <v>42807</v>
       </c>
       <c r="B769">
-        <v>8622981.430681413</v>
+        <v>11781840.81999101</v>
       </c>
     </row>
     <row r="770" spans="1:2">
@@ -6543,7 +6543,7 @@
         <v>42808</v>
       </c>
       <c r="B770">
-        <v>8622981.430681413</v>
+        <v>10869334.5591185</v>
       </c>
     </row>
     <row r="771" spans="1:2">
@@ -6551,7 +6551,7 @@
         <v>42809</v>
       </c>
       <c r="B771">
-        <v>8622981.430681413</v>
+        <v>10921342.68569723</v>
       </c>
     </row>
     <row r="772" spans="1:2">
@@ -6559,7 +6559,7 @@
         <v>42810</v>
       </c>
       <c r="B772">
-        <v>8622981.430681413</v>
+        <v>10741678.2374132</v>
       </c>
     </row>
     <row r="773" spans="1:2">
@@ -6567,7 +6567,7 @@
         <v>42811</v>
       </c>
       <c r="B773">
-        <v>8622981.430681413</v>
+        <v>10812598.41755512</v>
       </c>
     </row>
     <row r="774" spans="1:2">
@@ -6575,7 +6575,7 @@
         <v>42814</v>
       </c>
       <c r="B774">
-        <v>8622981.430681413</v>
+        <v>11020630.93024545</v>
       </c>
     </row>
     <row r="775" spans="1:2">
@@ -6583,7 +6583,7 @@
         <v>42815</v>
       </c>
       <c r="B775">
-        <v>8622981.430681413</v>
+        <v>10978078.82726061</v>
       </c>
     </row>
     <row r="776" spans="1:2">
@@ -6591,7 +6591,7 @@
         <v>42816</v>
       </c>
       <c r="B776">
-        <v>8622981.430681413</v>
+        <v>11531256.19794045</v>
       </c>
     </row>
     <row r="777" spans="1:2">
@@ -6599,7 +6599,7 @@
         <v>42817</v>
       </c>
       <c r="B777">
-        <v>8622981.430681413</v>
+        <v>11790076.66400133</v>
       </c>
     </row>
     <row r="778" spans="1:2">
@@ -6607,7 +6607,7 @@
         <v>42818</v>
       </c>
       <c r="B778">
-        <v>8622981.430681413</v>
+        <v>11733245.26773074</v>
       </c>
     </row>
     <row r="779" spans="1:2">
@@ -6615,7 +6615,7 @@
         <v>42821</v>
       </c>
       <c r="B779">
-        <v>8622981.430681413</v>
+        <v>11691913.34432948</v>
       </c>
     </row>
     <row r="780" spans="1:2">
@@ -6623,7 +6623,7 @@
         <v>42822</v>
       </c>
       <c r="B780">
-        <v>8622981.430681413</v>
+        <v>12105232.59109291</v>
       </c>
     </row>
     <row r="781" spans="1:2">
@@ -6631,7 +6631,7 @@
         <v>42823</v>
       </c>
       <c r="B781">
-        <v>8622981.430681413</v>
+        <v>12084566.62939228</v>
       </c>
     </row>
     <row r="782" spans="1:2">
@@ -6639,7 +6639,7 @@
         <v>42824</v>
       </c>
       <c r="B782">
-        <v>8622981.430681413</v>
+        <v>11531752.13318034</v>
       </c>
     </row>
     <row r="783" spans="1:2">
@@ -6647,7 +6647,7 @@
         <v>42825</v>
       </c>
       <c r="B783">
-        <v>8622981.430681413</v>
+        <v>11681580.36029147</v>
       </c>
     </row>
     <row r="784" spans="1:2">
@@ -6655,7 +6655,7 @@
         <v>42830</v>
       </c>
       <c r="B784">
-        <v>8622981.430681413</v>
+        <v>11371590.92840659</v>
       </c>
     </row>
     <row r="785" spans="1:2">
@@ -6663,7 +6663,7 @@
         <v>42831</v>
       </c>
       <c r="B785">
-        <v>8622981.430681413</v>
+        <v>11180430.77151881</v>
       </c>
     </row>
     <row r="786" spans="1:2">
@@ -6671,7 +6671,7 @@
         <v>42832</v>
       </c>
       <c r="B786">
-        <v>8622981.430681413</v>
+        <v>11702246.32836749</v>
       </c>
     </row>
     <row r="787" spans="1:2">
@@ -6679,7 +6679,7 @@
         <v>42835</v>
       </c>
       <c r="B787">
-        <v>8622981.430681413</v>
+        <v>12249894.32937273</v>
       </c>
     </row>
     <row r="788" spans="1:2">
@@ -6687,7 +6687,7 @@
         <v>42836</v>
       </c>
       <c r="B788">
-        <v>8622981.430681413</v>
+        <v>12456553.95275445</v>
       </c>
     </row>
     <row r="789" spans="1:2">
@@ -6695,7 +6695,7 @@
         <v>42837</v>
       </c>
       <c r="B789">
-        <v>8622981.430681413</v>
+        <v>12534051.31072567</v>
       </c>
     </row>
     <row r="790" spans="1:2">
@@ -6703,7 +6703,7 @@
         <v>42838</v>
       </c>
       <c r="B790">
-        <v>8622981.430681413</v>
+        <v>12983535.99205906</v>
       </c>
     </row>
     <row r="791" spans="1:2">
@@ -6711,7 +6711,7 @@
         <v>42839</v>
       </c>
       <c r="B791">
-        <v>8622981.430681413</v>
+        <v>12792375.84154666</v>
       </c>
     </row>
     <row r="792" spans="1:2">
@@ -6719,7 +6719,7 @@
         <v>42842</v>
       </c>
       <c r="B792">
-        <v>8622981.430681413</v>
+        <v>12704545.49953743</v>
       </c>
     </row>
     <row r="793" spans="1:2">
@@ -6727,7 +6727,7 @@
         <v>42843</v>
       </c>
       <c r="B793">
-        <v>8622981.430681413</v>
+        <v>12833707.76494793</v>
       </c>
     </row>
     <row r="794" spans="1:2">
@@ -6735,7 +6735,7 @@
         <v>42844</v>
       </c>
       <c r="B794">
-        <v>8622981.430681413</v>
+        <v>13340023.8489273</v>
       </c>
     </row>
     <row r="795" spans="1:2">
@@ -6743,7 +6743,7 @@
         <v>42845</v>
       </c>
       <c r="B795">
-        <v>8622981.430681413</v>
+        <v>13164363.16490883</v>
       </c>
     </row>
     <row r="796" spans="1:2">
@@ -6751,7 +6751,7 @@
         <v>42846</v>
       </c>
       <c r="B796">
-        <v>8622981.430681413</v>
+        <v>12931871.09099517</v>
       </c>
     </row>
     <row r="797" spans="1:2">
@@ -6759,7 +6759,7 @@
         <v>42849</v>
       </c>
       <c r="B797">
-        <v>8622981.430681413</v>
+        <v>12802708.82558467</v>
       </c>
     </row>
     <row r="798" spans="1:2">
@@ -6767,7 +6767,7 @@
         <v>42850</v>
       </c>
       <c r="B798">
-        <v>8622981.430681413</v>
+        <v>12792375.84154666</v>
       </c>
     </row>
     <row r="799" spans="1:2">
@@ -6775,7 +6775,7 @@
         <v>42851</v>
       </c>
       <c r="B799">
-        <v>8622981.430681413</v>
+        <v>12637381.12560423</v>
       </c>
     </row>
     <row r="800" spans="1:2">
@@ -6783,7 +6783,7 @@
         <v>42852</v>
       </c>
       <c r="B800">
-        <v>8622981.430681413</v>
+        <v>12559883.767633</v>
       </c>
     </row>
     <row r="801" spans="1:2">
@@ -6791,7 +6791,7 @@
         <v>42853</v>
       </c>
       <c r="B801">
-        <v>8622981.430681413</v>
+        <v>12224061.87884079</v>
       </c>
     </row>
     <row r="802" spans="1:2">
@@ -6799,7 +6799,7 @@
         <v>42857</v>
       </c>
       <c r="B802">
-        <v>8622981.430681413</v>
+        <v>11619582.47518957</v>
       </c>
     </row>
     <row r="803" spans="1:2">
@@ -6807,7 +6807,7 @@
         <v>42858</v>
       </c>
       <c r="B803">
-        <v>8622981.430681413</v>
+        <v>11666080.89379754</v>
       </c>
     </row>
     <row r="804" spans="1:2">
@@ -6815,7 +6815,7 @@
         <v>42859</v>
       </c>
       <c r="B804">
-        <v>8622981.430681413</v>
+        <v>11784910.17517002</v>
       </c>
     </row>
     <row r="805" spans="1:2">
@@ -6823,7 +6823,7 @@
         <v>42860</v>
       </c>
       <c r="B805">
-        <v>8622981.430681413</v>
+        <v>12668380.06496748</v>
       </c>
     </row>
     <row r="806" spans="1:2">
@@ -6831,7 +6831,7 @@
         <v>42863</v>
       </c>
       <c r="B806">
-        <v>8622981.430681413</v>
+        <v>12673546.56017418</v>
       </c>
     </row>
     <row r="807" spans="1:2">
@@ -6839,7 +6839,7 @@
         <v>42864</v>
       </c>
       <c r="B807">
-        <v>8622981.430681413</v>
+        <v>12415222.02935319</v>
       </c>
     </row>
     <row r="808" spans="1:2">
@@ -6847,7 +6847,7 @@
         <v>42865</v>
       </c>
       <c r="B808">
-        <v>8622981.430681413</v>
+        <v>12358390.6330826</v>
       </c>
     </row>
     <row r="809" spans="1:2">
@@ -6855,7 +6855,7 @@
         <v>42866</v>
       </c>
       <c r="B809">
-        <v>8622981.430681413</v>
+        <v>11970903.83685111</v>
       </c>
     </row>
     <row r="810" spans="1:2">
@@ -6863,7 +6863,7 @@
         <v>42867</v>
       </c>
       <c r="B810">
-        <v>8622981.430681413</v>
+        <v>12053567.68365364</v>
       </c>
     </row>
     <row r="811" spans="1:2">
@@ -6871,7 +6871,7 @@
         <v>42870</v>
       </c>
       <c r="B811">
-        <v>8622981.430681413</v>
+        <v>12663213.57613617</v>
       </c>
     </row>
     <row r="812" spans="1:2">
@@ -6879,7 +6879,7 @@
         <v>42871</v>
       </c>
       <c r="B812">
-        <v>8622981.430681413</v>
+        <v>12420388.51818449</v>
       </c>
     </row>
     <row r="813" spans="1:2">
@@ -6887,7 +6887,7 @@
         <v>42872</v>
       </c>
       <c r="B813">
-        <v>8622981.430681413</v>
+        <v>12379056.59478323</v>
       </c>
     </row>
     <row r="814" spans="1:2">
@@ -6895,7 +6895,7 @@
         <v>42873</v>
       </c>
       <c r="B814">
-        <v>8622981.430681413</v>
+        <v>11831408.5874026</v>
       </c>
     </row>
     <row r="815" spans="1:2">
@@ -6903,7 +6903,7 @@
         <v>42874</v>
       </c>
       <c r="B815">
-        <v>8622981.430681413</v>
+        <v>11795243.15920803</v>
       </c>
     </row>
     <row r="816" spans="1:2">
@@ -6911,7 +6911,7 @@
         <v>42877</v>
       </c>
       <c r="B816">
-        <v>8622981.430681413</v>
+        <v>11092600.43588496</v>
       </c>
     </row>
     <row r="817" spans="1:2">
@@ -6919,7 +6919,7 @@
         <v>42878</v>
       </c>
       <c r="B817">
-        <v>8622981.430681413</v>
+        <v>10601783.82477492</v>
       </c>
     </row>
     <row r="818" spans="1:2">
@@ -6927,7 +6927,7 @@
         <v>42879</v>
       </c>
       <c r="B818">
-        <v>8622981.430681413</v>
+        <v>10916939.7518665</v>
       </c>
     </row>
     <row r="819" spans="1:2">
@@ -6935,7 +6935,7 @@
         <v>42880</v>
       </c>
       <c r="B819">
-        <v>8622981.430681413</v>
+        <v>11128765.87045492</v>
       </c>
     </row>
     <row r="820" spans="1:2">
@@ -6943,7 +6943,7 @@
         <v>42881</v>
       </c>
       <c r="B820">
-        <v>8622981.430681413</v>
+        <v>11263094.62469673</v>
       </c>
     </row>
     <row r="821" spans="1:2">
@@ -6951,7 +6951,7 @@
         <v>42886</v>
       </c>
       <c r="B821">
-        <v>8622981.430681413</v>
+        <v>11123599.37524822</v>
       </c>
     </row>
     <row r="822" spans="1:2">
@@ -6959,7 +6959,7 @@
         <v>42887</v>
       </c>
       <c r="B822">
-        <v>8622981.430681413</v>
+        <v>11877907.00601057</v>
       </c>
     </row>
     <row r="823" spans="1:2">
@@ -6967,7 +6967,7 @@
         <v>42888</v>
       </c>
       <c r="B823">
-        <v>8622981.430681413</v>
+        <v>11898572.9677112</v>
       </c>
     </row>
     <row r="824" spans="1:2">
@@ -6975,7 +6975,7 @@
         <v>42891</v>
       </c>
       <c r="B824">
-        <v>8622981.430681413</v>
+        <v>12353224.1378759</v>
       </c>
     </row>
     <row r="825" spans="1:2">
@@ -6983,7 +6983,7 @@
         <v>42892</v>
       </c>
       <c r="B825">
-        <v>8622981.430681413</v>
+        <v>12776876.36867734</v>
       </c>
     </row>
     <row r="826" spans="1:2">
@@ -6991,7 +6991,7 @@
         <v>42893</v>
       </c>
       <c r="B826">
-        <v>8622981.430681413</v>
+        <v>12616715.16390359</v>
       </c>
     </row>
     <row r="827" spans="1:2">
@@ -6999,7 +6999,7 @@
         <v>42894</v>
       </c>
       <c r="B827">
-        <v>8622981.430681413</v>
+        <v>12570216.74529562</v>
       </c>
     </row>
     <row r="828" spans="1:2">
@@ -7007,7 +7007,7 @@
         <v>42895</v>
       </c>
       <c r="B828">
-        <v>8622981.430681413</v>
+        <v>12570216.74529562</v>
       </c>
     </row>
     <row r="829" spans="1:2">
@@ -7015,7 +7015,7 @@
         <v>42898</v>
       </c>
       <c r="B829">
-        <v>8622981.430681413</v>
+        <v>12249894.32937273</v>
       </c>
     </row>
     <row r="830" spans="1:2">
@@ -7023,7 +7023,7 @@
         <v>42899</v>
       </c>
       <c r="B830">
-        <v>8622981.430681413</v>
+        <v>12224061.87884079</v>
       </c>
     </row>
     <row r="831" spans="1:2">
@@ -7031,7 +7031,7 @@
         <v>42900</v>
       </c>
       <c r="B831">
-        <v>8622981.430681413</v>
+        <v>12740710.93410739</v>
       </c>
     </row>
     <row r="832" spans="1:2">
@@ -7039,7 +7039,7 @@
         <v>42901</v>
       </c>
       <c r="B832">
-        <v>8622981.430681413</v>
+        <v>11991569.79855174</v>
       </c>
     </row>
     <row r="833" spans="1:2">
@@ -7047,7 +7047,7 @@
         <v>42902</v>
       </c>
       <c r="B833">
-        <v>8622981.430681413</v>
+        <v>11862407.53314124</v>
       </c>
     </row>
     <row r="834" spans="1:2">
@@ -7055,7 +7055,7 @@
         <v>42905</v>
       </c>
       <c r="B834">
-        <v>8622981.430681413</v>
+        <v>11888239.99004858</v>
       </c>
     </row>
     <row r="835" spans="1:2">
@@ -7063,7 +7063,7 @@
         <v>42906</v>
       </c>
       <c r="B835">
-        <v>8622981.430681413</v>
+        <v>11660914.39859084</v>
       </c>
     </row>
     <row r="836" spans="1:2">
@@ -7071,7 +7071,7 @@
         <v>42907</v>
       </c>
       <c r="B836">
-        <v>8622981.430681413</v>
+        <v>11893406.47887989</v>
       </c>
     </row>
     <row r="837" spans="1:2">
@@ -7079,7 +7079,7 @@
         <v>42908</v>
       </c>
       <c r="B837">
-        <v>8622981.430681413</v>
+        <v>11996736.28738305</v>
       </c>
     </row>
     <row r="838" spans="1:2">
@@ -7087,7 +7087,7 @@
         <v>42909</v>
       </c>
       <c r="B838">
-        <v>8622981.430681413</v>
+        <v>12213728.89480278</v>
       </c>
     </row>
     <row r="839" spans="1:2">
@@ -7095,7 +7095,7 @@
         <v>42912</v>
       </c>
       <c r="B839">
-        <v>8622981.430681413</v>
+        <v>11862407.53314124</v>
       </c>
     </row>
     <row r="840" spans="1:2">
@@ -7103,7 +7103,7 @@
         <v>42913</v>
       </c>
       <c r="B840">
-        <v>8622981.430681413</v>
+        <v>11619582.47518957</v>
       </c>
     </row>
     <row r="841" spans="1:2">
@@ -7111,7 +7111,7 @@
         <v>42914</v>
       </c>
       <c r="B841">
-        <v>8622981.430681413</v>
+        <v>11237262.17416479</v>
       </c>
     </row>
     <row r="842" spans="1:2">
@@ -7119,7 +7119,7 @@
         <v>42915</v>
       </c>
       <c r="B842">
-        <v>8622981.430681413</v>
+        <v>10916939.7518665</v>
       </c>
     </row>
     <row r="843" spans="1:2">
@@ -7127,7 +7127,7 @@
         <v>42916</v>
       </c>
       <c r="B843">
-        <v>8622981.430681413</v>
+        <v>10901440.27899718</v>
       </c>
     </row>
     <row r="844" spans="1:2">
@@ -7135,7 +7135,7 @@
         <v>42919</v>
       </c>
       <c r="B844">
-        <v>8622981.430681413</v>
+        <v>10643115.75455158</v>
       </c>
     </row>
     <row r="845" spans="1:2">
@@ -7143,7 +7143,7 @@
         <v>42920</v>
       </c>
       <c r="B845">
-        <v>8622981.430681413</v>
+        <v>10312460.35459068</v>
       </c>
     </row>
     <row r="846" spans="1:2">
@@ -7151,7 +7151,7 @@
         <v>42921</v>
       </c>
       <c r="B846">
-        <v>8622981.430681413</v>
+        <v>10493287.52744045</v>
       </c>
     </row>
     <row r="847" spans="1:2">
@@ -7159,7 +7159,7 @@
         <v>42922</v>
       </c>
       <c r="B847">
-        <v>8622981.430681413</v>
+        <v>10338292.80512262</v>
       </c>
     </row>
     <row r="848" spans="1:2">
@@ -7167,7 +7167,7 @@
         <v>42923</v>
       </c>
       <c r="B848">
-        <v>8622981.430681413</v>
+        <v>10229796.50141275</v>
       </c>
     </row>
     <row r="849" spans="1:2">
@@ -7175,7 +7175,7 @@
         <v>42926</v>
       </c>
       <c r="B849">
-        <v>8622981.430681413</v>
+        <v>10157465.63864824</v>
       </c>
     </row>
     <row r="850" spans="1:2">
@@ -7183,7 +7183,7 @@
         <v>42927</v>
       </c>
       <c r="B850">
-        <v>8622981.430681413</v>
+        <v>10141966.16577891</v>
       </c>
     </row>
     <row r="851" spans="1:2">
@@ -7191,7 +7191,7 @@
         <v>42928</v>
       </c>
       <c r="B851">
-        <v>8622981.430681413</v>
+        <v>9485821.854688421</v>
       </c>
     </row>
     <row r="852" spans="1:2">
@@ -7199,7 +7199,7 @@
         <v>42929</v>
       </c>
       <c r="B852">
-        <v>8622981.430681413</v>
+        <v>9408324.4967172</v>
       </c>
     </row>
     <row r="853" spans="1:2">
@@ -7207,7 +7207,7 @@
         <v>42930</v>
       </c>
       <c r="B853">
-        <v>8622981.430681413</v>
+        <v>9005338.233991779</v>
       </c>
     </row>
     <row r="854" spans="1:2">
@@ -7215,7 +7215,7 @@
         <v>42933</v>
       </c>
       <c r="B854">
-        <v>8622981.430681413</v>
+        <v>9640816.577006251</v>
       </c>
     </row>
     <row r="855" spans="1:2">
@@ -7223,7 +7223,7 @@
         <v>42934</v>
       </c>
       <c r="B855">
-        <v>8622981.430681413</v>
+        <v>9165499.43876553</v>
       </c>
     </row>
     <row r="856" spans="1:2">
@@ -7231,7 +7231,7 @@
         <v>42935</v>
       </c>
       <c r="B856">
-        <v>8622981.430681413</v>
+        <v>9315327.66587666</v>
       </c>
     </row>
     <row r="857" spans="1:2">
@@ -7239,7 +7239,7 @@
         <v>42936</v>
       </c>
       <c r="B857">
-        <v>8622981.430681413</v>
+        <v>8958839.815383814</v>
       </c>
     </row>
     <row r="858" spans="1:2">
@@ -7247,7 +7247,7 @@
         <v>42937</v>
       </c>
       <c r="B858">
-        <v>8622981.430681413</v>
+        <v>9769978.84241675</v>
       </c>
     </row>
     <row r="859" spans="1:2">
@@ -7255,7 +7255,7 @@
         <v>42940</v>
       </c>
       <c r="B859">
-        <v>8622981.430681413</v>
+        <v>9676982.011576207</v>
       </c>
     </row>
     <row r="860" spans="1:2">
@@ -7263,7 +7263,7 @@
         <v>42941</v>
       </c>
       <c r="B860">
-        <v>8622981.430681413</v>
+        <v>9702814.462108152</v>
       </c>
     </row>
     <row r="861" spans="1:2">
@@ -7271,7 +7271,7 @@
         <v>42942</v>
       </c>
       <c r="B861">
-        <v>8622981.430681413</v>
+        <v>9413490.991923904</v>
       </c>
     </row>
     <row r="862" spans="1:2">
@@ -7279,7 +7279,7 @@
         <v>42943</v>
       </c>
       <c r="B862">
-        <v>8622981.430681413</v>
+        <v>9537486.762127699</v>
       </c>
     </row>
     <row r="863" spans="1:2">
@@ -7287,7 +7287,7 @@
         <v>42944</v>
       </c>
       <c r="B863">
-        <v>8622981.430681413</v>
+        <v>9480655.365857113</v>
       </c>
     </row>
     <row r="864" spans="1:2">
@@ -7295,7 +7295,7 @@
         <v>42947</v>
       </c>
       <c r="B864">
-        <v>8622981.430681413</v>
+        <v>9485821.854688423</v>
       </c>
     </row>
     <row r="865" spans="1:2">
@@ -7303,7 +7303,7 @@
         <v>42948</v>
       </c>
       <c r="B865">
-        <v>8622981.430681413</v>
+        <v>8736680.719132775</v>
       </c>
     </row>
     <row r="866" spans="1:2">
@@ -7311,7 +7311,7 @@
         <v>42949</v>
       </c>
       <c r="B866">
-        <v>8622981.430681413</v>
+        <v>8814178.077103995</v>
       </c>
     </row>
     <row r="867" spans="1:2">
@@ -7319,7 +7319,7 @@
         <v>42950</v>
       </c>
       <c r="B867">
-        <v>8622981.430681413</v>
+        <v>8710848.268600835</v>
       </c>
     </row>
     <row r="868" spans="1:2">
@@ -7327,7 +7327,7 @@
         <v>42951</v>
       </c>
       <c r="B868">
-        <v>8622981.430681413</v>
+        <v>8375026.379808623</v>
       </c>
     </row>
     <row r="869" spans="1:2">
@@ -7335,7 +7335,7 @@
         <v>42954</v>
       </c>
       <c r="B869">
-        <v>8622981.430681413</v>
+        <v>7858377.318166635</v>
       </c>
     </row>
     <row r="870" spans="1:2">
@@ -7343,7 +7343,7 @@
         <v>42955</v>
       </c>
       <c r="B870">
-        <v>8622981.430681413</v>
+        <v>6801606.518583849</v>
       </c>
     </row>
     <row r="871" spans="1:2">
@@ -7351,7 +7351,7 @@
         <v>42956</v>
       </c>
       <c r="B871">
-        <v>8622981.430681413</v>
+        <v>6963066.00147295</v>
       </c>
     </row>
     <row r="872" spans="1:2">
@@ -7359,7 +7359,7 @@
         <v>42957</v>
       </c>
       <c r="B872">
-        <v>8622981.430681413</v>
+        <v>6441013.675377472</v>
       </c>
     </row>
     <row r="873" spans="1:2">
@@ -7367,7 +7367,7 @@
         <v>42958</v>
       </c>
       <c r="B873">
-        <v>8622981.430681413</v>
+        <v>6672438.929722411</v>
       </c>
     </row>
     <row r="874" spans="1:2">
@@ -7375,7 +7375,7 @@
         <v>42961</v>
       </c>
       <c r="B874">
-        <v>8622981.430681413</v>
+        <v>7124525.484362055</v>
       </c>
     </row>
     <row r="875" spans="1:2">
@@ -7383,7 +7383,7 @@
         <v>42962</v>
       </c>
       <c r="B875">
-        <v>8622981.430681413</v>
+        <v>7452826.427165382</v>
       </c>
     </row>
     <row r="876" spans="1:2">
@@ -7391,7 +7391,7 @@
         <v>42963</v>
       </c>
       <c r="B876">
-        <v>8622981.430681413</v>
+        <v>7764981.426142567</v>
       </c>
     </row>
     <row r="877" spans="1:2">
@@ -7399,7 +7399,7 @@
         <v>42964</v>
       </c>
       <c r="B877">
-        <v>8622981.430681413</v>
+        <v>7851093.154175323</v>
       </c>
     </row>
     <row r="878" spans="1:2">
@@ -7407,7 +7407,7 @@
         <v>42965</v>
       </c>
       <c r="B878">
-        <v>8622981.430681413</v>
+        <v>7452826.427165382</v>
       </c>
     </row>
     <row r="879" spans="1:2">
@@ -7415,7 +7415,7 @@
         <v>42968</v>
       </c>
       <c r="B879">
-        <v>8622981.430681413</v>
+        <v>7086851.60055849</v>
       </c>
     </row>
     <row r="880" spans="1:2">
@@ -7423,7 +7423,7 @@
         <v>42969</v>
       </c>
       <c r="B880">
-        <v>8622981.430681413</v>
+        <v>6537889.363835853</v>
       </c>
     </row>
     <row r="881" spans="1:2">
@@ -7431,7 +7431,7 @@
         <v>42970</v>
       </c>
       <c r="B881">
-        <v>8622981.430681413</v>
+        <v>6817752.462409988</v>
       </c>
     </row>
     <row r="882" spans="1:2">
@@ -7439,7 +7439,7 @@
         <v>42971</v>
       </c>
       <c r="B882">
-        <v>8622981.430681413</v>
+        <v>7565848.065825291</v>
       </c>
     </row>
     <row r="883" spans="1:2">
@@ -7447,7 +7447,7 @@
         <v>42972</v>
       </c>
       <c r="B883">
-        <v>8622981.430681413</v>
+        <v>7156817.37838972</v>
       </c>
     </row>
     <row r="884" spans="1:2">
@@ -7455,7 +7455,7 @@
         <v>42975</v>
       </c>
       <c r="B884">
-        <v>8622981.430681413</v>
+        <v>6806988.501984361</v>
       </c>
     </row>
     <row r="885" spans="1:2">
@@ -7463,7 +7463,7 @@
         <v>42976</v>
       </c>
       <c r="B885">
-        <v>8622981.430681413</v>
+        <v>6774696.601581302</v>
       </c>
     </row>
     <row r="886" spans="1:2">
@@ -7471,7 +7471,7 @@
         <v>42977</v>
       </c>
       <c r="B886">
-        <v>8622981.430681413</v>
+        <v>6995357.895500615</v>
       </c>
     </row>
     <row r="887" spans="1:2">
@@ -7479,7 +7479,7 @@
         <v>42978</v>
       </c>
       <c r="B887">
-        <v>8622981.430681413</v>
+        <v>7162199.361790228</v>
       </c>
     </row>
     <row r="888" spans="1:2">
@@ -7487,7 +7487,7 @@
         <v>42979</v>
       </c>
       <c r="B888">
-        <v>8622981.430681413</v>
+        <v>6833898.412611513</v>
       </c>
     </row>
     <row r="889" spans="1:2">
@@ -7495,7 +7495,7 @@
         <v>42982</v>
       </c>
       <c r="B889">
-        <v>8622981.430681413</v>
+        <v>6053510.915168548</v>
       </c>
     </row>
     <row r="890" spans="1:2">
@@ -7503,7 +7503,7 @@
         <v>42983</v>
       </c>
       <c r="B890">
-        <v>8622981.430681413</v>
+        <v>6053510.915168548</v>
       </c>
     </row>
     <row r="891" spans="1:2">
@@ -7511,7 +7511,7 @@
         <v>42984</v>
       </c>
       <c r="B891">
-        <v>8622981.430681413</v>
+        <v>5940489.276508636</v>
       </c>
     </row>
     <row r="892" spans="1:2">
@@ -7519,7 +7519,7 @@
         <v>42985</v>
       </c>
       <c r="B892">
-        <v>8622981.430681413</v>
+        <v>6387193.847747768</v>
       </c>
     </row>
     <row r="893" spans="1:2">
@@ -7527,7 +7527,7 @@
         <v>42986</v>
       </c>
       <c r="B893">
-        <v>8622981.430681413</v>
+        <v>6640147.035694747</v>
       </c>
     </row>
     <row r="894" spans="1:2">
@@ -7535,7 +7535,7 @@
         <v>42989</v>
       </c>
       <c r="B894">
-        <v>8622981.430681413</v>
+        <v>6850044.36281304</v>
       </c>
     </row>
     <row r="895" spans="1:2">
@@ -7543,7 +7543,7 @@
         <v>42990</v>
       </c>
       <c r="B895">
-        <v>8622981.430681413</v>
+        <v>6833898.412611513</v>
       </c>
     </row>
     <row r="896" spans="1:2">
@@ -7551,7 +7551,7 @@
         <v>42991</v>
       </c>
       <c r="B896">
-        <v>8622981.430681413</v>
+        <v>6640147.035694746</v>
       </c>
     </row>
     <row r="897" spans="1:2">
@@ -7559,7 +7559,7 @@
         <v>42992</v>
       </c>
       <c r="B897">
-        <v>8622981.430681413</v>
+        <v>6844662.37941253</v>
       </c>
     </row>
     <row r="898" spans="1:2">
@@ -7567,7 +7567,7 @@
         <v>42993</v>
       </c>
       <c r="B898">
-        <v>8622981.430681413</v>
+        <v>7285984.960875764</v>
       </c>
     </row>
     <row r="899" spans="1:2">
@@ -7575,7 +7575,7 @@
         <v>42996</v>
       </c>
       <c r="B899">
-        <v>8622981.430681413</v>
+        <v>7409770.566336693</v>
       </c>
     </row>
     <row r="900" spans="1:2">
@@ -7583,7 +7583,7 @@
         <v>42997</v>
       </c>
       <c r="B900">
-        <v>8622981.430681413</v>
+        <v>7474354.360767414</v>
       </c>
     </row>
     <row r="901" spans="1:2">
@@ -7591,7 +7591,7 @@
         <v>42998</v>
       </c>
       <c r="B901">
-        <v>8622981.430681413</v>
+        <v>7786509.359744599</v>
       </c>
     </row>
     <row r="902" spans="1:2">
@@ -7599,7 +7599,7 @@
         <v>42999</v>
       </c>
       <c r="B902">
-        <v>8622981.430681413</v>
+        <v>7625049.876855498</v>
       </c>
     </row>
     <row r="903" spans="1:2">
@@ -7607,7 +7607,7 @@
         <v>43000</v>
       </c>
       <c r="B903">
-        <v>8622981.430681413</v>
+        <v>8260123.841610891</v>
       </c>
     </row>
     <row r="904" spans="1:2">
@@ -7615,7 +7615,7 @@
         <v>43003</v>
       </c>
       <c r="B904">
-        <v>8622981.430681413</v>
+        <v>8669154.529046463</v>
       </c>
     </row>
     <row r="905" spans="1:2">
@@ -7623,7 +7623,7 @@
         <v>43004</v>
       </c>
       <c r="B905">
-        <v>8622981.430681413</v>
+        <v>8534604.963159906</v>
       </c>
     </row>
     <row r="906" spans="1:2">
@@ -7631,7 +7631,7 @@
         <v>43005</v>
       </c>
       <c r="B906">
-        <v>8622981.430681413</v>
+        <v>8459257.201928169</v>
       </c>
     </row>
     <row r="907" spans="1:2">
@@ -7639,7 +7639,7 @@
         <v>43006</v>
       </c>
       <c r="B907">
-        <v>8622981.430681413</v>
+        <v>8044844.531092089</v>
       </c>
     </row>
     <row r="908" spans="1:2">
@@ -7647,7 +7647,7 @@
         <v>43007</v>
       </c>
       <c r="B908">
-        <v>8622981.430681413</v>
+        <v>8448493.235127147</v>
       </c>
     </row>
     <row r="909" spans="1:2">
@@ -7655,7 +7655,7 @@
         <v>43017</v>
       </c>
       <c r="B909">
-        <v>8622981.430681413</v>
+        <v>7657341.770883164</v>
       </c>
     </row>
     <row r="910" spans="1:2">
@@ -7663,7 +7663,7 @@
         <v>43018</v>
       </c>
       <c r="B910">
-        <v>8622981.430681413</v>
+        <v>8017934.614089541</v>
       </c>
     </row>
     <row r="911" spans="1:2">
@@ -7671,7 +7671,7 @@
         <v>43019</v>
       </c>
       <c r="B911">
-        <v>8622981.430681413</v>
+        <v>8798322.111532509</v>
       </c>
     </row>
     <row r="912" spans="1:2">
@@ -7679,7 +7679,7 @@
         <v>43020</v>
       </c>
       <c r="B912">
-        <v>8622981.430681413</v>
+        <v>8943635.650595477</v>
       </c>
     </row>
     <row r="913" spans="1:2">
@@ -7687,7 +7687,7 @@
         <v>43021</v>
       </c>
       <c r="B913">
-        <v>8622981.430681413</v>
+        <v>8179394.096978646</v>
       </c>
     </row>
     <row r="914" spans="1:2">
@@ -7695,7 +7695,7 @@
         <v>43024</v>
       </c>
       <c r="B914">
-        <v>8622981.430681413</v>
+        <v>7355950.738706995</v>
       </c>
     </row>
     <row r="915" spans="1:2">
@@ -7703,7 +7703,7 @@
         <v>43025</v>
       </c>
       <c r="B915">
-        <v>8622981.430681413</v>
+        <v>7323658.844679332</v>
       </c>
     </row>
     <row r="916" spans="1:2">
@@ -7711,7 +7711,7 @@
         <v>43026</v>
       </c>
       <c r="B916">
-        <v>8622981.430681413</v>
+        <v>7781127.376344092</v>
       </c>
     </row>
     <row r="917" spans="1:2">
@@ -7719,7 +7719,7 @@
         <v>43027</v>
       </c>
       <c r="B917">
-        <v>8622981.430681413</v>
+        <v>8039462.54769158</v>
       </c>
     </row>
     <row r="918" spans="1:2">
@@ -7727,7 +7727,7 @@
         <v>43028</v>
       </c>
       <c r="B918">
-        <v>8622981.430681413</v>
+        <v>8523840.996358886</v>
       </c>
     </row>
     <row r="919" spans="1:2">
@@ -7735,7 +7735,7 @@
         <v>43031</v>
       </c>
       <c r="B919">
-        <v>8622981.430681413</v>
+        <v>7576612.032626309</v>
       </c>
     </row>
     <row r="920" spans="1:2">
@@ -7743,7 +7743,7 @@
         <v>43032</v>
       </c>
       <c r="B920">
-        <v>8622981.430681413</v>
+        <v>8001788.670263406</v>
       </c>
     </row>
     <row r="921" spans="1:2">
@@ -7751,7 +7751,7 @@
         <v>43033</v>
       </c>
       <c r="B921">
-        <v>8622981.430681413</v>
+        <v>7748835.48231643</v>
       </c>
     </row>
     <row r="922" spans="1:2">
@@ -7759,7 +7759,7 @@
         <v>43034</v>
       </c>
       <c r="B922">
-        <v>8622981.430681413</v>
+        <v>8087900.391920771</v>
       </c>
     </row>
     <row r="923" spans="1:2">
@@ -7767,7 +7767,7 @@
         <v>43035</v>
       </c>
       <c r="B923">
-        <v>8622981.430681413</v>
+        <v>8260123.841610893</v>
       </c>
     </row>
     <row r="924" spans="1:2">
@@ -7775,7 +7775,7 @@
         <v>43038</v>
       </c>
       <c r="B924">
-        <v>8622981.430681413</v>
+        <v>8631480.651618289</v>
       </c>
     </row>
     <row r="925" spans="1:2">
@@ -7783,7 +7783,7 @@
         <v>43039</v>
       </c>
       <c r="B925">
-        <v>8622981.430681413</v>
+        <v>8663772.545645954</v>
       </c>
     </row>
     <row r="926" spans="1:2">
@@ -7791,7 +7791,7 @@
         <v>43040</v>
       </c>
       <c r="B926">
-        <v>8622981.430681413</v>
+        <v>8346235.563268257</v>
       </c>
     </row>
     <row r="927" spans="1:2">
@@ -7799,7 +7799,7 @@
         <v>43041</v>
       </c>
       <c r="B927">
-        <v>8622981.430681413</v>
+        <v>8636862.635018798</v>
       </c>
     </row>
     <row r="928" spans="1:2">
@@ -7807,7 +7807,7 @@
         <v>43042</v>
       </c>
       <c r="B928">
-        <v>8622981.430681413</v>
+        <v>8324707.63604161</v>
       </c>
     </row>
     <row r="929" spans="1:2">
@@ -7815,7 +7815,7 @@
         <v>43045</v>
       </c>
       <c r="B929">
-        <v>8622981.430681413</v>
+        <v>8410819.357698975</v>
       </c>
     </row>
     <row r="930" spans="1:2">
@@ -7823,7 +7823,7 @@
         <v>43046</v>
       </c>
       <c r="B930">
-        <v>8622981.430681413</v>
+        <v>7781127.37634409</v>
       </c>
     </row>
     <row r="931" spans="1:2">
@@ -7831,7 +7831,7 @@
         <v>43047</v>
       </c>
       <c r="B931">
-        <v>8622981.430681413</v>
+        <v>7964114.78645984</v>
       </c>
     </row>
     <row r="932" spans="1:2">
@@ -7839,7 +7839,7 @@
         <v>43048</v>
       </c>
       <c r="B932">
-        <v>8622981.430681413</v>
+        <v>7743453.498915916</v>
       </c>
     </row>
     <row r="933" spans="1:2">
@@ -7847,7 +7847,7 @@
         <v>43049</v>
       </c>
       <c r="B933">
-        <v>8622981.430681413</v>
+        <v>7668105.737684181</v>
       </c>
     </row>
     <row r="934" spans="1:2">
@@ -7855,7 +7855,7 @@
         <v>43052</v>
       </c>
       <c r="B934">
-        <v>8622981.430681413</v>
+        <v>7399006.599535676</v>
       </c>
     </row>
     <row r="935" spans="1:2">
@@ -7863,7 +7863,7 @@
         <v>43053</v>
       </c>
       <c r="B935">
-        <v>8622981.430681413</v>
+        <v>7458208.410565885</v>
       </c>
     </row>
     <row r="936" spans="1:2">
@@ -7871,7 +7871,7 @@
         <v>43054</v>
       </c>
       <c r="B936">
-        <v>8622981.430681413</v>
+        <v>7425916.51653822</v>
       </c>
     </row>
     <row r="937" spans="1:2">
@@ -7879,7 +7879,7 @@
         <v>43055</v>
       </c>
       <c r="B937">
-        <v>8622981.430681413</v>
+        <v>7894149.015004002</v>
       </c>
     </row>
     <row r="938" spans="1:2">
@@ -7887,7 +7887,7 @@
         <v>43056</v>
       </c>
       <c r="B938">
-        <v>8622981.430681413</v>
+        <v>8093282.375321278</v>
       </c>
     </row>
     <row r="939" spans="1:2">
@@ -7895,7 +7895,7 @@
         <v>43059</v>
       </c>
       <c r="B939">
-        <v>8622981.430681413</v>
+        <v>8383909.440696429</v>
       </c>
     </row>
     <row r="940" spans="1:2">
@@ -7903,7 +7903,7 @@
         <v>43060</v>
       </c>
       <c r="B940">
-        <v>8622981.430681413</v>
+        <v>8001788.670263404</v>
       </c>
     </row>
     <row r="941" spans="1:2">
@@ -7911,7 +7911,7 @@
         <v>43061</v>
       </c>
       <c r="B941">
-        <v>8622981.430681413</v>
+        <v>7619667.893454989</v>
       </c>
     </row>
     <row r="942" spans="1:2">
@@ -7919,7 +7919,7 @@
         <v>43062</v>
       </c>
       <c r="B942">
-        <v>8622981.430681413</v>
+        <v>7361332.722107504</v>
       </c>
     </row>
     <row r="943" spans="1:2">
@@ -7927,7 +7927,7 @@
         <v>43063</v>
       </c>
       <c r="B943">
-        <v>8622981.430681413</v>
+        <v>7291366.944276272</v>
       </c>
     </row>
     <row r="944" spans="1:2">
@@ -7935,7 +7935,7 @@
         <v>43066</v>
       </c>
       <c r="B944">
-        <v>8622981.430681413</v>
+        <v>7372096.688908519</v>
       </c>
     </row>
     <row r="945" spans="1:2">
@@ -7943,7 +7943,7 @@
         <v>43067</v>
       </c>
       <c r="B945">
-        <v>8622981.430681413</v>
+        <v>7210637.206019418</v>
       </c>
     </row>
     <row r="946" spans="1:2">
@@ -7951,7 +7951,7 @@
         <v>43068</v>
       </c>
       <c r="B946">
-        <v>8622981.430681413</v>
+        <v>6995357.895500614</v>
       </c>
     </row>
     <row r="947" spans="1:2">
@@ -7959,7 +7959,7 @@
         <v>43069</v>
       </c>
       <c r="B947">
-        <v>8622981.430681413</v>
+        <v>6591709.191465552</v>
       </c>
     </row>
     <row r="948" spans="1:2">
@@ -7967,7 +7967,7 @@
         <v>43070</v>
       </c>
       <c r="B948">
-        <v>8622981.430681413</v>
+        <v>6414103.758374922</v>
       </c>
     </row>
     <row r="949" spans="1:2">
@@ -7975,7 +7975,7 @@
         <v>43073</v>
       </c>
       <c r="B949">
-        <v>8622981.430681413</v>
+        <v>6527125.397034834</v>
       </c>
     </row>
     <row r="950" spans="1:2">
@@ -7983,7 +7983,7 @@
         <v>43074</v>
       </c>
       <c r="B950">
-        <v>8622981.430681413</v>
+        <v>6069656.865370074</v>
       </c>
     </row>
     <row r="951" spans="1:2">
@@ -7991,7 +7991,7 @@
         <v>43075</v>
       </c>
       <c r="B951">
-        <v>8622981.430681413</v>
+        <v>6241880.308684804</v>
       </c>
     </row>
     <row r="952" spans="1:2">
@@ -7999,7 +7999,7 @@
         <v>43076</v>
       </c>
       <c r="B952">
-        <v>8622981.430681413</v>
+        <v>6774696.601581302</v>
       </c>
     </row>
     <row r="953" spans="1:2">
@@ -8007,7 +8007,7 @@
         <v>43077</v>
       </c>
       <c r="B953">
-        <v>8622981.430681413</v>
+        <v>7291366.944276273</v>
       </c>
     </row>
     <row r="954" spans="1:2">
@@ -8015,7 +8015,7 @@
         <v>43080</v>
       </c>
       <c r="B954">
-        <v>8622981.430681413</v>
+        <v>6952302.034671934</v>
       </c>
     </row>
     <row r="955" spans="1:2">
@@ -8023,7 +8023,7 @@
         <v>43081</v>
       </c>
       <c r="B955">
-        <v>8622981.430681413</v>
+        <v>6790842.551782831</v>
       </c>
     </row>
     <row r="956" spans="1:2">
@@ -8031,7 +8031,7 @@
         <v>43082</v>
       </c>
       <c r="B956">
-        <v>8622981.430681413</v>
+        <v>7000739.878901123</v>
       </c>
     </row>
     <row r="957" spans="1:2">
@@ -8039,7 +8039,7 @@
         <v>43083</v>
       </c>
       <c r="B957">
-        <v>8622981.430681413</v>
+        <v>7280602.983850645</v>
       </c>
     </row>
     <row r="958" spans="1:2">
@@ -8047,7 +8047,7 @@
         <v>43084</v>
       </c>
       <c r="B958">
-        <v>8622981.430681413</v>
+        <v>7549702.11562376</v>
       </c>
     </row>
     <row r="959" spans="1:2">
@@ -8055,7 +8055,7 @@
         <v>43087</v>
       </c>
       <c r="B959">
-        <v>8622981.430681413</v>
+        <v>7242929.100047084</v>
       </c>
     </row>
     <row r="960" spans="1:2">
@@ -8063,7 +8063,7 @@
         <v>43088</v>
       </c>
       <c r="B960">
-        <v>8622981.430681413</v>
+        <v>7043795.739729808</v>
       </c>
     </row>
     <row r="961" spans="1:2">
@@ -8071,7 +8071,7 @@
         <v>43089</v>
       </c>
       <c r="B961">
-        <v>8622981.430681413</v>
+        <v>7512028.238195585</v>
       </c>
     </row>
     <row r="962" spans="1:2">
@@ -8079,7 +8079,7 @@
         <v>43090</v>
       </c>
       <c r="B962">
-        <v>8622981.430681413</v>
+        <v>7393624.616135167</v>
       </c>
     </row>
     <row r="963" spans="1:2">
@@ -8087,7 +8087,7 @@
         <v>43091</v>
       </c>
       <c r="B963">
-        <v>8622981.430681413</v>
+        <v>7167581.345190735</v>
       </c>
     </row>
     <row r="964" spans="1:2">
@@ -8095,7 +8095,7 @@
         <v>43094</v>
       </c>
       <c r="B964">
-        <v>8622981.430681413</v>
+        <v>6677820.913122917</v>
       </c>
     </row>
     <row r="965" spans="1:2">
@@ -8103,7 +8103,7 @@
         <v>43095</v>
       </c>
       <c r="B965">
-        <v>8622981.430681413</v>
+        <v>7560466.082424779</v>
       </c>
     </row>
     <row r="966" spans="1:2">
@@ -8111,7 +8111,7 @@
         <v>43096</v>
       </c>
       <c r="B966">
-        <v>8622981.430681413</v>
+        <v>7345186.771905972</v>
       </c>
     </row>
     <row r="967" spans="1:2">
@@ -8119,7 +8119,7 @@
         <v>43097</v>
       </c>
       <c r="B967">
-        <v>8622981.430681413</v>
+        <v>7560466.082424779</v>
       </c>
     </row>
     <row r="968" spans="1:2">
@@ -8127,7 +8127,7 @@
         <v>43098</v>
       </c>
       <c r="B968">
-        <v>8622981.430681413</v>
+        <v>7705779.615112354</v>
       </c>
     </row>
   </sheetData>
